--- a/sk install.xlsx
+++ b/sk install.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vietpm\github_projects\zitga_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D5D30A4-BA8D-4B17-99CF-0C24BF7F4289}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{95C062AF-B81A-48DE-8E94-E9CA67817475}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9C2BEE17-F495-4202-9C80-6AD43ED91ACA}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{9C2BEE17-F495-4202-9C80-6AD43ED91ACA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$P$867</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$867</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <fileRecoveryPr repairLoad="1"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="150">
   <si>
     <t>event_date</t>
   </si>
@@ -419,6 +420,9 @@
     <t>Sum of unityads_int</t>
   </si>
   <si>
+    <t>Sum of non-organic</t>
+  </si>
+  <si>
     <t>Row Labels</t>
   </si>
   <si>
@@ -459,6 +463,33 @@
   </si>
   <si>
     <t>%unity</t>
+  </si>
+  <si>
+    <t>crit</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>trên tổng non-organic</t>
+  </si>
+  <si>
+    <t>fb</t>
+  </si>
+  <si>
+    <t>gg</t>
+  </si>
+  <si>
+    <t>unity</t>
+  </si>
+  <si>
+    <t>other</t>
   </si>
 </sst>
 </file>
@@ -16759,8 +16790,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1F97515B-4746-4EDE-93C7-38F398B5D06C}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:D9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1F97515B-4746-4EDE-93C7-38F398B5D06C}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:E9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="17">
     <pivotField axis="axisRow" multipleItemSelectionAllowed="1" showAll="0">
       <items count="109">
@@ -16888,7 +16919,7 @@
     <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0">
       <items count="369">
         <item x="0"/>
@@ -17308,7 +17339,7 @@
   <colFields count="1">
     <field x="-2"/>
   </colFields>
-  <colItems count="3">
+  <colItems count="4">
     <i>
       <x/>
     </i>
@@ -17318,11 +17349,15 @@
     <i i="2">
       <x v="2"/>
     </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
   </colItems>
-  <dataFields count="3">
+  <dataFields count="4">
     <dataField name="Sum of Facebook Ads" fld="4" baseField="0" baseItem="0"/>
     <dataField name="Sum of googleadwords_int" fld="7" baseField="0" baseItem="0"/>
     <dataField name="Sum of unityads_int" fld="12" baseField="0" baseItem="0"/>
+    <dataField name="Sum of non-organic" fld="14" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -17632,330 +17667,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA8AC71A-0201-4913-91BC-05CE4ED18323}">
-  <dimension ref="A3:K15"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D3" t="s">
-        <v>125</v>
-      </c>
-      <c r="F3" t="s">
-        <v>129</v>
-      </c>
-      <c r="G3" t="s">
-        <v>130</v>
-      </c>
-      <c r="H3" t="s">
-        <v>131</v>
-      </c>
-      <c r="I3" t="s">
-        <v>137</v>
-      </c>
-      <c r="J3" t="s">
-        <v>138</v>
-      </c>
-      <c r="K3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="2">
-        <v>13296</v>
-      </c>
-      <c r="C4" s="2">
-        <v>2920</v>
-      </c>
-      <c r="D4" s="2">
-        <v>5063</v>
-      </c>
-      <c r="F4" t="s">
-        <v>128</v>
-      </c>
-      <c r="G4">
-        <v>4.1521099999999998E-2</v>
-      </c>
-      <c r="H4">
-        <v>0.15579699999999999</v>
-      </c>
-      <c r="I4" s="5">
-        <f>F11/$E11</f>
-        <v>0.62484139292259977</v>
-      </c>
-      <c r="J4" s="5">
-        <f t="shared" ref="J4:K4" si="0">G11/$E11</f>
-        <v>0.13722449363221956</v>
-      </c>
-      <c r="K4" s="5">
-        <f t="shared" si="0"/>
-        <v>0.2379341134451807</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="2">
-        <v>877</v>
-      </c>
-      <c r="C5" s="2">
-        <v>813</v>
-      </c>
-      <c r="D5" s="2">
-        <v>3524</v>
-      </c>
-      <c r="F5" t="s">
-        <v>132</v>
-      </c>
-      <c r="G5">
-        <v>0.44691799999999998</v>
-      </c>
-      <c r="H5" t="s">
-        <v>133</v>
-      </c>
-      <c r="I5" s="5">
-        <f t="shared" ref="I5:I8" si="1">F12/$E12</f>
-        <v>0.16820099731492136</v>
-      </c>
-      <c r="J5" s="5">
-        <f t="shared" ref="J5:J8" si="2">G12/$E12</f>
-        <v>0.15592635212888378</v>
-      </c>
-      <c r="K5" s="5">
-        <f t="shared" ref="K5:K8" si="3">H12/$E12</f>
-        <v>0.67587265055619483</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="2">
-        <v>2380</v>
-      </c>
-      <c r="C6" s="2">
-        <v>612</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1739</v>
-      </c>
-      <c r="F6" t="s">
-        <v>134</v>
-      </c>
-      <c r="G6">
-        <v>0.30115399999999998</v>
-      </c>
-      <c r="H6" t="s">
-        <v>133</v>
-      </c>
-      <c r="I6" s="5">
-        <f t="shared" si="1"/>
-        <v>0.50306489114352149</v>
-      </c>
-      <c r="J6" s="5">
-        <f t="shared" si="2"/>
-        <v>0.12935954343690551</v>
-      </c>
-      <c r="K6" s="5">
-        <f t="shared" si="3"/>
-        <v>0.36757556541957304</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="2">
-        <v>722</v>
-      </c>
-      <c r="C7" s="2">
-        <v>47</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1141</v>
-      </c>
-      <c r="F7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G7">
-        <v>1.4595999999999999E-3</v>
-      </c>
-      <c r="H7">
-        <v>0.79655799999999999</v>
-      </c>
-      <c r="I7" s="5">
-        <f t="shared" si="1"/>
-        <v>0.37801047120418846</v>
-      </c>
-      <c r="J7" s="5">
-        <f t="shared" si="2"/>
-        <v>2.4607329842931937E-2</v>
-      </c>
-      <c r="K7" s="5">
-        <f t="shared" si="3"/>
-        <v>0.59738219895287958</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="2">
-        <v>2542</v>
-      </c>
-      <c r="C8" s="2">
-        <v>6521</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1252</v>
-      </c>
-      <c r="F8" t="s">
-        <v>136</v>
-      </c>
-      <c r="G8">
-        <v>2.9066000000000002E-2</v>
-      </c>
-      <c r="H8">
-        <v>0.23652100000000001</v>
-      </c>
-      <c r="I8" s="5">
-        <f t="shared" si="1"/>
-        <v>0.24643722733882695</v>
-      </c>
-      <c r="J8" s="5">
-        <f t="shared" si="2"/>
-        <v>0.6321861366941347</v>
-      </c>
-      <c r="K8" s="5">
-        <f t="shared" si="3"/>
-        <v>0.12137663596703829</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="B9" s="2">
-        <v>19817</v>
-      </c>
-      <c r="C9" s="2">
-        <v>10913</v>
-      </c>
-      <c r="D9" s="2">
-        <v>12719</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E11">
-        <f>SUM(F11:H11)</f>
-        <v>21279</v>
-      </c>
-      <c r="F11">
-        <v>13296</v>
-      </c>
-      <c r="G11">
-        <v>2920</v>
-      </c>
-      <c r="H11">
-        <v>5063</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E12">
-        <f t="shared" ref="E12:E15" si="4">SUM(F12:H12)</f>
-        <v>5214</v>
-      </c>
-      <c r="F12">
-        <v>877</v>
-      </c>
-      <c r="G12">
-        <v>813</v>
-      </c>
-      <c r="H12">
-        <v>3524</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E13">
-        <f t="shared" si="4"/>
-        <v>4731</v>
-      </c>
-      <c r="F13">
-        <v>2380</v>
-      </c>
-      <c r="G13">
-        <v>612</v>
-      </c>
-      <c r="H13">
-        <v>1739</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E14">
-        <f t="shared" si="4"/>
-        <v>1910</v>
-      </c>
-      <c r="F14">
-        <v>722</v>
-      </c>
-      <c r="G14">
-        <v>47</v>
-      </c>
-      <c r="H14">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E15">
-        <f t="shared" si="4"/>
-        <v>10315</v>
-      </c>
-      <c r="F15">
-        <v>2542</v>
-      </c>
-      <c r="G15">
-        <v>6521</v>
-      </c>
-      <c r="H15">
-        <v>1252</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E6FBCF9-B89B-431C-BB11-0F403F3F8192}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:P867"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+      <selection activeCell="B1" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18016,7 +17733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -18118,7 +17835,7 @@
         <v>43907</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -18169,7 +17886,7 @@
         <v>43907</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -18220,7 +17937,7 @@
         <v>43907</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -18271,7 +17988,7 @@
         <v>43907</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -18322,7 +18039,7 @@
         <v>43907</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -18373,7 +18090,7 @@
         <v>43907</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -18424,7 +18141,7 @@
         <v>43907</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -18475,7 +18192,7 @@
         <v>43907</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -18526,7 +18243,7 @@
         <v>43907</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -18577,7 +18294,7 @@
         <v>43907</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -18628,7 +18345,7 @@
         <v>43907</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -18679,7 +18396,7 @@
         <v>43907</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -18730,7 +18447,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -18832,7 +18549,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -18883,7 +18600,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -18934,7 +18651,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -18985,7 +18702,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -19036,7 +18753,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -19087,7 +18804,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -19138,7 +18855,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -19189,7 +18906,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -19240,7 +18957,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -19291,7 +19008,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -19342,7 +19059,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>23</v>
       </c>
@@ -19393,7 +19110,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -19444,7 +19161,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>25</v>
       </c>
@@ -19495,7 +19212,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>38</v>
       </c>
@@ -19546,7 +19263,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>39</v>
       </c>
@@ -19597,7 +19314,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>26</v>
       </c>
@@ -19648,7 +19365,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>27</v>
       </c>
@@ -19750,7 +19467,7 @@
         <v>43909</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>30</v>
       </c>
@@ -19801,7 +19518,7 @@
         <v>43909</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -19852,7 +19569,7 @@
         <v>43909</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>41</v>
       </c>
@@ -19903,7 +19620,7 @@
         <v>43909</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>17</v>
       </c>
@@ -19954,7 +19671,7 @@
         <v>43909</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -20005,7 +19722,7 @@
         <v>43909</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -20056,7 +19773,7 @@
         <v>43909</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>33</v>
       </c>
@@ -20107,7 +19824,7 @@
         <v>43909</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>22</v>
       </c>
@@ -20158,7 +19875,7 @@
         <v>43909</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -20209,7 +19926,7 @@
         <v>43909</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>34</v>
       </c>
@@ -20260,7 +19977,7 @@
         <v>43909</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>36</v>
       </c>
@@ -20311,7 +20028,7 @@
         <v>43909</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>23</v>
       </c>
@@ -20362,7 +20079,7 @@
         <v>43909</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>24</v>
       </c>
@@ -20413,7 +20130,7 @@
         <v>43909</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>25</v>
       </c>
@@ -20464,7 +20181,7 @@
         <v>43909</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>26</v>
       </c>
@@ -20515,7 +20232,7 @@
         <v>43909</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>27</v>
       </c>
@@ -20566,7 +20283,7 @@
         <v>43909</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>28</v>
       </c>
@@ -20668,7 +20385,7 @@
         <v>43910</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>45</v>
       </c>
@@ -20719,7 +20436,7 @@
         <v>43910</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>17</v>
       </c>
@@ -20770,7 +20487,7 @@
         <v>43910</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>22</v>
       </c>
@@ -20821,7 +20538,7 @@
         <v>43910</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>35</v>
       </c>
@@ -20872,7 +20589,7 @@
         <v>43910</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>23</v>
       </c>
@@ -20923,7 +20640,7 @@
         <v>43910</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>24</v>
       </c>
@@ -20974,7 +20691,7 @@
         <v>43910</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>25</v>
       </c>
@@ -21025,7 +20742,7 @@
         <v>43910</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>46</v>
       </c>
@@ -21076,7 +20793,7 @@
         <v>43910</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>26</v>
       </c>
@@ -21127,7 +20844,7 @@
         <v>43910</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>27</v>
       </c>
@@ -21229,7 +20946,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>17</v>
       </c>
@@ -21280,7 +20997,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>19</v>
       </c>
@@ -21331,7 +21048,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>20</v>
       </c>
@@ -21382,7 +21099,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>47</v>
       </c>
@@ -21433,7 +21150,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>22</v>
       </c>
@@ -21484,7 +21201,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>34</v>
       </c>
@@ -21535,7 +21252,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>23</v>
       </c>
@@ -21586,7 +21303,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>25</v>
       </c>
@@ -21637,7 +21354,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>27</v>
       </c>
@@ -21739,7 +21456,7 @@
         <v>43912</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>30</v>
       </c>
@@ -21790,7 +21507,7 @@
         <v>43912</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>17</v>
       </c>
@@ -21841,7 +21558,7 @@
         <v>43912</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>19</v>
       </c>
@@ -21892,7 +21609,7 @@
         <v>43912</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>48</v>
       </c>
@@ -21943,7 +21660,7 @@
         <v>43912</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>43</v>
       </c>
@@ -21994,7 +21711,7 @@
         <v>43912</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>21</v>
       </c>
@@ -22045,7 +21762,7 @@
         <v>43912</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>22</v>
       </c>
@@ -22096,7 +21813,7 @@
         <v>43912</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>23</v>
       </c>
@@ -22147,7 +21864,7 @@
         <v>43912</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>25</v>
       </c>
@@ -22198,7 +21915,7 @@
         <v>43912</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>26</v>
       </c>
@@ -22249,7 +21966,7 @@
         <v>43912</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>27</v>
       </c>
@@ -22351,7 +22068,7 @@
         <v>43913</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>49</v>
       </c>
@@ -22402,7 +22119,7 @@
         <v>43913</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>17</v>
       </c>
@@ -22453,7 +22170,7 @@
         <v>43913</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>50</v>
       </c>
@@ -22504,7 +22221,7 @@
         <v>43913</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>22</v>
       </c>
@@ -22555,7 +22272,7 @@
         <v>43913</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>23</v>
       </c>
@@ -22606,7 +22323,7 @@
         <v>43913</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>51</v>
       </c>
@@ -22657,7 +22374,7 @@
         <v>43913</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>25</v>
       </c>
@@ -22708,7 +22425,7 @@
         <v>43913</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>26</v>
       </c>
@@ -22759,7 +22476,7 @@
         <v>43913</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>27</v>
       </c>
@@ -22810,7 +22527,7 @@
         <v>43913</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>28</v>
       </c>
@@ -22912,7 +22629,7 @@
         <v>43914</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>17</v>
       </c>
@@ -22963,7 +22680,7 @@
         <v>43914</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>19</v>
       </c>
@@ -23014,7 +22731,7 @@
         <v>43914</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>42</v>
       </c>
@@ -23065,7 +22782,7 @@
         <v>43914</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>52</v>
       </c>
@@ -23116,7 +22833,7 @@
         <v>43914</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>22</v>
       </c>
@@ -23167,7 +22884,7 @@
         <v>43914</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>23</v>
       </c>
@@ -23218,7 +22935,7 @@
         <v>43914</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>25</v>
       </c>
@@ -23269,7 +22986,7 @@
         <v>43914</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>26</v>
       </c>
@@ -23320,7 +23037,7 @@
         <v>43914</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>53</v>
       </c>
@@ -23371,7 +23088,7 @@
         <v>43914</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>27</v>
       </c>
@@ -23422,7 +23139,7 @@
         <v>43914</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>28</v>
       </c>
@@ -23524,7 +23241,7 @@
         <v>43915</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>54</v>
       </c>
@@ -23575,7 +23292,7 @@
         <v>43915</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>17</v>
       </c>
@@ -23626,7 +23343,7 @@
         <v>43915</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>19</v>
       </c>
@@ -23677,7 +23394,7 @@
         <v>43915</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>22</v>
       </c>
@@ -23728,7 +23445,7 @@
         <v>43915</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>23</v>
       </c>
@@ -23779,7 +23496,7 @@
         <v>43915</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>25</v>
       </c>
@@ -23830,7 +23547,7 @@
         <v>43915</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>46</v>
       </c>
@@ -23881,7 +23598,7 @@
         <v>43915</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>26</v>
       </c>
@@ -23932,7 +23649,7 @@
         <v>43915</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>53</v>
       </c>
@@ -23983,7 +23700,7 @@
         <v>43915</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>27</v>
       </c>
@@ -24085,7 +23802,7 @@
         <v>43916</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>17</v>
       </c>
@@ -24136,7 +23853,7 @@
         <v>43916</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>22</v>
       </c>
@@ -24187,7 +23904,7 @@
         <v>43916</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>23</v>
       </c>
@@ -24238,7 +23955,7 @@
         <v>43916</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>25</v>
       </c>
@@ -24289,7 +24006,7 @@
         <v>43916</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>27</v>
       </c>
@@ -24391,7 +24108,7 @@
         <v>43917</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>55</v>
       </c>
@@ -24442,7 +24159,7 @@
         <v>43917</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>17</v>
       </c>
@@ -24493,7 +24210,7 @@
         <v>43917</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>19</v>
       </c>
@@ -24544,7 +24261,7 @@
         <v>43917</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>22</v>
       </c>
@@ -24595,7 +24312,7 @@
         <v>43917</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>23</v>
       </c>
@@ -24646,7 +24363,7 @@
         <v>43917</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>25</v>
       </c>
@@ -24697,7 +24414,7 @@
         <v>43917</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>27</v>
       </c>
@@ -24799,7 +24516,7 @@
         <v>43918</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>17</v>
       </c>
@@ -24850,7 +24567,7 @@
         <v>43918</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>19</v>
       </c>
@@ -24901,7 +24618,7 @@
         <v>43918</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>42</v>
       </c>
@@ -24952,7 +24669,7 @@
         <v>43918</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>22</v>
       </c>
@@ -25003,7 +24720,7 @@
         <v>43918</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>23</v>
       </c>
@@ -25054,7 +24771,7 @@
         <v>43918</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>25</v>
       </c>
@@ -25105,7 +24822,7 @@
         <v>43918</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>56</v>
       </c>
@@ -25156,7 +24873,7 @@
         <v>43918</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>27</v>
       </c>
@@ -25207,7 +24924,7 @@
         <v>43918</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>28</v>
       </c>
@@ -25309,7 +25026,7 @@
         <v>43919</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>17</v>
       </c>
@@ -25360,7 +25077,7 @@
         <v>43919</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>20</v>
       </c>
@@ -25411,7 +25128,7 @@
         <v>43919</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>22</v>
       </c>
@@ -25462,7 +25179,7 @@
         <v>43919</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>23</v>
       </c>
@@ -25513,7 +25230,7 @@
         <v>43919</v>
       </c>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>25</v>
       </c>
@@ -25564,7 +25281,7 @@
         <v>43919</v>
       </c>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>26</v>
       </c>
@@ -25615,7 +25332,7 @@
         <v>43919</v>
       </c>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>53</v>
       </c>
@@ -25666,7 +25383,7 @@
         <v>43919</v>
       </c>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>27</v>
       </c>
@@ -25768,7 +25485,7 @@
         <v>43920</v>
       </c>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>57</v>
       </c>
@@ -25819,7 +25536,7 @@
         <v>43920</v>
       </c>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>55</v>
       </c>
@@ -25870,7 +25587,7 @@
         <v>43920</v>
       </c>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>40</v>
       </c>
@@ -25921,7 +25638,7 @@
         <v>43920</v>
       </c>
     </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>17</v>
       </c>
@@ -25972,7 +25689,7 @@
         <v>43920</v>
       </c>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>58</v>
       </c>
@@ -26023,7 +25740,7 @@
         <v>43920</v>
       </c>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>43</v>
       </c>
@@ -26074,7 +25791,7 @@
         <v>43920</v>
       </c>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>22</v>
       </c>
@@ -26125,7 +25842,7 @@
         <v>43920</v>
       </c>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>59</v>
       </c>
@@ -26176,7 +25893,7 @@
         <v>43920</v>
       </c>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>25</v>
       </c>
@@ -26227,7 +25944,7 @@
         <v>43920</v>
       </c>
     </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>26</v>
       </c>
@@ -26278,7 +25995,7 @@
         <v>43920</v>
       </c>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>27</v>
       </c>
@@ -26380,7 +26097,7 @@
         <v>43921</v>
       </c>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>57</v>
       </c>
@@ -26431,7 +26148,7 @@
         <v>43921</v>
       </c>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>17</v>
       </c>
@@ -26482,7 +26199,7 @@
         <v>43921</v>
       </c>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>43</v>
       </c>
@@ -26533,7 +26250,7 @@
         <v>43921</v>
       </c>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>22</v>
       </c>
@@ -26584,7 +26301,7 @@
         <v>43921</v>
       </c>
     </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>23</v>
       </c>
@@ -26635,7 +26352,7 @@
         <v>43921</v>
       </c>
     </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>25</v>
       </c>
@@ -26686,7 +26403,7 @@
         <v>43921</v>
       </c>
     </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>26</v>
       </c>
@@ -26737,7 +26454,7 @@
         <v>43921</v>
       </c>
     </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>27</v>
       </c>
@@ -26839,7 +26556,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>41</v>
       </c>
@@ -26890,7 +26607,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>60</v>
       </c>
@@ -26941,7 +26658,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>17</v>
       </c>
@@ -26992,7 +26709,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>43</v>
       </c>
@@ -27043,7 +26760,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>22</v>
       </c>
@@ -27094,7 +26811,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>25</v>
       </c>
@@ -27145,7 +26862,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>26</v>
       </c>
@@ -27196,7 +26913,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>27</v>
       </c>
@@ -27247,7 +26964,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>28</v>
       </c>
@@ -27349,7 +27066,7 @@
         <v>43923</v>
       </c>
     </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>57</v>
       </c>
@@ -27400,7 +27117,7 @@
         <v>43923</v>
       </c>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>17</v>
       </c>
@@ -27451,7 +27168,7 @@
         <v>43923</v>
       </c>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>42</v>
       </c>
@@ -27502,7 +27219,7 @@
         <v>43923</v>
       </c>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>22</v>
       </c>
@@ -27553,7 +27270,7 @@
         <v>43923</v>
       </c>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>51</v>
       </c>
@@ -27604,7 +27321,7 @@
         <v>43923</v>
       </c>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>25</v>
       </c>
@@ -27655,7 +27372,7 @@
         <v>43923</v>
       </c>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>56</v>
       </c>
@@ -27706,7 +27423,7 @@
         <v>43923</v>
       </c>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>26</v>
       </c>
@@ -27757,7 +27474,7 @@
         <v>43923</v>
       </c>
     </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>27</v>
       </c>
@@ -27859,7 +27576,7 @@
         <v>43924</v>
       </c>
     </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>17</v>
       </c>
@@ -27910,7 +27627,7 @@
         <v>43924</v>
       </c>
     </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>19</v>
       </c>
@@ -27961,7 +27678,7 @@
         <v>43924</v>
       </c>
     </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>22</v>
       </c>
@@ -28012,7 +27729,7 @@
         <v>43924</v>
       </c>
     </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>25</v>
       </c>
@@ -28063,7 +27780,7 @@
         <v>43924</v>
       </c>
     </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>46</v>
       </c>
@@ -28114,7 +27831,7 @@
         <v>43924</v>
       </c>
     </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>26</v>
       </c>
@@ -28165,7 +27882,7 @@
         <v>43924</v>
       </c>
     </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>27</v>
       </c>
@@ -28267,7 +27984,7 @@
         <v>43925</v>
       </c>
     </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>61</v>
       </c>
@@ -28318,7 +28035,7 @@
         <v>43925</v>
       </c>
     </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>55</v>
       </c>
@@ -28369,7 +28086,7 @@
         <v>43925</v>
       </c>
     </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>17</v>
       </c>
@@ -28420,7 +28137,7 @@
         <v>43925</v>
       </c>
     </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>42</v>
       </c>
@@ -28471,7 +28188,7 @@
         <v>43925</v>
       </c>
     </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>43</v>
       </c>
@@ -28522,7 +28239,7 @@
         <v>43925</v>
       </c>
     </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>33</v>
       </c>
@@ -28573,7 +28290,7 @@
         <v>43925</v>
       </c>
     </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>22</v>
       </c>
@@ -28624,7 +28341,7 @@
         <v>43925</v>
       </c>
     </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>25</v>
       </c>
@@ -28675,7 +28392,7 @@
         <v>43925</v>
       </c>
     </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>56</v>
       </c>
@@ -28726,7 +28443,7 @@
         <v>43925</v>
       </c>
     </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>26</v>
       </c>
@@ -28777,7 +28494,7 @@
         <v>43925</v>
       </c>
     </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>27</v>
       </c>
@@ -28828,7 +28545,7 @@
         <v>43925</v>
       </c>
     </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>28</v>
       </c>
@@ -28930,7 +28647,7 @@
         <v>43926</v>
       </c>
     </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>57</v>
       </c>
@@ -28981,7 +28698,7 @@
         <v>43926</v>
       </c>
     </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>62</v>
       </c>
@@ -29032,7 +28749,7 @@
         <v>43926</v>
       </c>
     </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>17</v>
       </c>
@@ -29083,7 +28800,7 @@
         <v>43926</v>
       </c>
     </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>19</v>
       </c>
@@ -29134,7 +28851,7 @@
         <v>43926</v>
       </c>
     </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>43</v>
       </c>
@@ -29185,7 +28902,7 @@
         <v>43926</v>
       </c>
     </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>22</v>
       </c>
@@ -29236,7 +28953,7 @@
         <v>43926</v>
       </c>
     </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>51</v>
       </c>
@@ -29287,7 +29004,7 @@
         <v>43926</v>
       </c>
     </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>25</v>
       </c>
@@ -29338,7 +29055,7 @@
         <v>43926</v>
       </c>
     </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>26</v>
       </c>
@@ -29389,7 +29106,7 @@
         <v>43926</v>
       </c>
     </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>27</v>
       </c>
@@ -29491,7 +29208,7 @@
         <v>43927</v>
       </c>
     </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>17</v>
       </c>
@@ -29542,7 +29259,7 @@
         <v>43927</v>
       </c>
     </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>52</v>
       </c>
@@ -29593,7 +29310,7 @@
         <v>43927</v>
       </c>
     </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>22</v>
       </c>
@@ -29644,7 +29361,7 @@
         <v>43927</v>
       </c>
     </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>25</v>
       </c>
@@ -29695,7 +29412,7 @@
         <v>43927</v>
       </c>
     </row>
-    <row r="231" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>39</v>
       </c>
@@ -29746,7 +29463,7 @@
         <v>43927</v>
       </c>
     </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>26</v>
       </c>
@@ -29797,7 +29514,7 @@
         <v>43927</v>
       </c>
     </row>
-    <row r="233" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>27</v>
       </c>
@@ -29899,7 +29616,7 @@
         <v>43928</v>
       </c>
     </row>
-    <row r="235" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>63</v>
       </c>
@@ -29950,7 +29667,7 @@
         <v>43928</v>
       </c>
     </row>
-    <row r="236" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>55</v>
       </c>
@@ -30001,7 +29718,7 @@
         <v>43928</v>
       </c>
     </row>
-    <row r="237" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>17</v>
       </c>
@@ -30052,7 +29769,7 @@
         <v>43928</v>
       </c>
     </row>
-    <row r="238" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>18</v>
       </c>
@@ -30103,7 +29820,7 @@
         <v>43928</v>
       </c>
     </row>
-    <row r="239" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>42</v>
       </c>
@@ -30154,7 +29871,7 @@
         <v>43928</v>
       </c>
     </row>
-    <row r="240" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>58</v>
       </c>
@@ -30205,7 +29922,7 @@
         <v>43928</v>
       </c>
     </row>
-    <row r="241" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>22</v>
       </c>
@@ -30256,7 +29973,7 @@
         <v>43928</v>
       </c>
     </row>
-    <row r="242" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>59</v>
       </c>
@@ -30307,7 +30024,7 @@
         <v>43928</v>
       </c>
     </row>
-    <row r="243" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>51</v>
       </c>
@@ -30358,7 +30075,7 @@
         <v>43928</v>
       </c>
     </row>
-    <row r="244" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>25</v>
       </c>
@@ -30409,7 +30126,7 @@
         <v>43928</v>
       </c>
     </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>26</v>
       </c>
@@ -30460,7 +30177,7 @@
         <v>43928</v>
       </c>
     </row>
-    <row r="246" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>27</v>
       </c>
@@ -30511,7 +30228,7 @@
         <v>43928</v>
       </c>
     </row>
-    <row r="247" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>28</v>
       </c>
@@ -30562,7 +30279,7 @@
         <v>43929</v>
       </c>
     </row>
-    <row r="248" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>64</v>
       </c>
@@ -30664,7 +30381,7 @@
         <v>43929</v>
       </c>
     </row>
-    <row r="250" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>62</v>
       </c>
@@ -30715,7 +30432,7 @@
         <v>43929</v>
       </c>
     </row>
-    <row r="251" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>65</v>
       </c>
@@ -30766,7 +30483,7 @@
         <v>43929</v>
       </c>
     </row>
-    <row r="252" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>66</v>
       </c>
@@ -30817,7 +30534,7 @@
         <v>43929</v>
       </c>
     </row>
-    <row r="253" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>49</v>
       </c>
@@ -30868,7 +30585,7 @@
         <v>43929</v>
       </c>
     </row>
-    <row r="254" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>67</v>
       </c>
@@ -30919,7 +30636,7 @@
         <v>43929</v>
       </c>
     </row>
-    <row r="255" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>40</v>
       </c>
@@ -30970,7 +30687,7 @@
         <v>43929</v>
       </c>
     </row>
-    <row r="256" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>41</v>
       </c>
@@ -31021,7 +30738,7 @@
         <v>43929</v>
       </c>
     </row>
-    <row r="257" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>68</v>
       </c>
@@ -31072,7 +30789,7 @@
         <v>43929</v>
       </c>
     </row>
-    <row r="258" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>17</v>
       </c>
@@ -31123,7 +30840,7 @@
         <v>43929</v>
       </c>
     </row>
-    <row r="259" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>58</v>
       </c>
@@ -31174,7 +30891,7 @@
         <v>43929</v>
       </c>
     </row>
-    <row r="260" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>69</v>
       </c>
@@ -31225,7 +30942,7 @@
         <v>43929</v>
       </c>
     </row>
-    <row r="261" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>22</v>
       </c>
@@ -31276,7 +30993,7 @@
         <v>43929</v>
       </c>
     </row>
-    <row r="262" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>51</v>
       </c>
@@ -31327,7 +31044,7 @@
         <v>43929</v>
       </c>
     </row>
-    <row r="263" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>70</v>
       </c>
@@ -31378,7 +31095,7 @@
         <v>43929</v>
       </c>
     </row>
-    <row r="264" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>25</v>
       </c>
@@ -31429,7 +31146,7 @@
         <v>43929</v>
       </c>
     </row>
-    <row r="265" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>26</v>
       </c>
@@ -31480,7 +31197,7 @@
         <v>43929</v>
       </c>
     </row>
-    <row r="266" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>53</v>
       </c>
@@ -31531,7 +31248,7 @@
         <v>43929</v>
       </c>
     </row>
-    <row r="267" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>27</v>
       </c>
@@ -31582,7 +31299,7 @@
         <v>43929</v>
       </c>
     </row>
-    <row r="268" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>28</v>
       </c>
@@ -31633,7 +31350,7 @@
         <v>43930</v>
       </c>
     </row>
-    <row r="269" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>64</v>
       </c>
@@ -31735,7 +31452,7 @@
         <v>43930</v>
       </c>
     </row>
-    <row r="271" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>62</v>
       </c>
@@ -31786,7 +31503,7 @@
         <v>43930</v>
       </c>
     </row>
-    <row r="272" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>65</v>
       </c>
@@ -31837,7 +31554,7 @@
         <v>43930</v>
       </c>
     </row>
-    <row r="273" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>49</v>
       </c>
@@ -31888,7 +31605,7 @@
         <v>43930</v>
       </c>
     </row>
-    <row r="274" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>67</v>
       </c>
@@ -31939,7 +31656,7 @@
         <v>43930</v>
       </c>
     </row>
-    <row r="275" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>40</v>
       </c>
@@ -31990,7 +31707,7 @@
         <v>43930</v>
       </c>
     </row>
-    <row r="276" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>17</v>
       </c>
@@ -32041,7 +31758,7 @@
         <v>43930</v>
       </c>
     </row>
-    <row r="277" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>18</v>
       </c>
@@ -32092,7 +31809,7 @@
         <v>43930</v>
       </c>
     </row>
-    <row r="278" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>33</v>
       </c>
@@ -32143,7 +31860,7 @@
         <v>43930</v>
       </c>
     </row>
-    <row r="279" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>22</v>
       </c>
@@ -32194,7 +31911,7 @@
         <v>43930</v>
       </c>
     </row>
-    <row r="280" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>23</v>
       </c>
@@ -32245,7 +31962,7 @@
         <v>43930</v>
       </c>
     </row>
-    <row r="281" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>70</v>
       </c>
@@ -32296,7 +32013,7 @@
         <v>43930</v>
       </c>
     </row>
-    <row r="282" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>25</v>
       </c>
@@ -32347,7 +32064,7 @@
         <v>43930</v>
       </c>
     </row>
-    <row r="283" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>26</v>
       </c>
@@ -32398,7 +32115,7 @@
         <v>43930</v>
       </c>
     </row>
-    <row r="284" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>27</v>
       </c>
@@ -32449,7 +32166,7 @@
         <v>43930</v>
       </c>
     </row>
-    <row r="285" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>28</v>
       </c>
@@ -32500,7 +32217,7 @@
         <v>43931</v>
       </c>
     </row>
-    <row r="286" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>64</v>
       </c>
@@ -32602,7 +32319,7 @@
         <v>43931</v>
       </c>
     </row>
-    <row r="288" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>65</v>
       </c>
@@ -32653,7 +32370,7 @@
         <v>43931</v>
       </c>
     </row>
-    <row r="289" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>71</v>
       </c>
@@ -32704,7 +32421,7 @@
         <v>43931</v>
       </c>
     </row>
-    <row r="290" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>49</v>
       </c>
@@ -32755,7 +32472,7 @@
         <v>43931</v>
       </c>
     </row>
-    <row r="291" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>17</v>
       </c>
@@ -32806,7 +32523,7 @@
         <v>43931</v>
       </c>
     </row>
-    <row r="292" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>18</v>
       </c>
@@ -32857,7 +32574,7 @@
         <v>43931</v>
       </c>
     </row>
-    <row r="293" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>42</v>
       </c>
@@ -32908,7 +32625,7 @@
         <v>43931</v>
       </c>
     </row>
-    <row r="294" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>22</v>
       </c>
@@ -32959,7 +32676,7 @@
         <v>43931</v>
       </c>
     </row>
-    <row r="295" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>59</v>
       </c>
@@ -33010,7 +32727,7 @@
         <v>43931</v>
       </c>
     </row>
-    <row r="296" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>70</v>
       </c>
@@ -33061,7 +32778,7 @@
         <v>43931</v>
       </c>
     </row>
-    <row r="297" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>25</v>
       </c>
@@ -33112,7 +32829,7 @@
         <v>43931</v>
       </c>
     </row>
-    <row r="298" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>26</v>
       </c>
@@ -33163,7 +32880,7 @@
         <v>43931</v>
       </c>
     </row>
-    <row r="299" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>27</v>
       </c>
@@ -33265,7 +32982,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row r="301" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>63</v>
       </c>
@@ -33316,7 +33033,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row r="302" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>40</v>
       </c>
@@ -33367,7 +33084,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row r="303" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>17</v>
       </c>
@@ -33418,7 +33135,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row r="304" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>19</v>
       </c>
@@ -33469,7 +33186,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row r="305" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>72</v>
       </c>
@@ -33520,7 +33237,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row r="306" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>33</v>
       </c>
@@ -33571,7 +33288,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row r="307" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>22</v>
       </c>
@@ -33622,7 +33339,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row r="308" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>25</v>
       </c>
@@ -33673,7 +33390,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row r="309" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>26</v>
       </c>
@@ -33724,7 +33441,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row r="310" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>27</v>
       </c>
@@ -33775,7 +33492,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row r="311" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>64</v>
       </c>
@@ -33877,7 +33594,7 @@
         <v>43933</v>
       </c>
     </row>
-    <row r="313" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>67</v>
       </c>
@@ -33928,7 +33645,7 @@
         <v>43933</v>
       </c>
     </row>
-    <row r="314" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>17</v>
       </c>
@@ -33979,7 +33696,7 @@
         <v>43933</v>
       </c>
     </row>
-    <row r="315" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>47</v>
       </c>
@@ -34030,7 +33747,7 @@
         <v>43933</v>
       </c>
     </row>
-    <row r="316" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>33</v>
       </c>
@@ -34081,7 +33798,7 @@
         <v>43933</v>
       </c>
     </row>
-    <row r="317" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>22</v>
       </c>
@@ -34132,7 +33849,7 @@
         <v>43933</v>
       </c>
     </row>
-    <row r="318" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>25</v>
       </c>
@@ -34183,7 +33900,7 @@
         <v>43933</v>
       </c>
     </row>
-    <row r="319" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>39</v>
       </c>
@@ -34234,7 +33951,7 @@
         <v>43933</v>
       </c>
     </row>
-    <row r="320" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>26</v>
       </c>
@@ -34285,7 +34002,7 @@
         <v>43933</v>
       </c>
     </row>
-    <row r="321" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>27</v>
       </c>
@@ -34336,7 +34053,7 @@
         <v>43933</v>
       </c>
     </row>
-    <row r="322" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>73</v>
       </c>
@@ -34387,7 +34104,7 @@
         <v>43934</v>
       </c>
     </row>
-    <row r="323" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>74</v>
       </c>
@@ -34489,7 +34206,7 @@
         <v>43934</v>
       </c>
     </row>
-    <row r="325" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>65</v>
       </c>
@@ -34540,7 +34257,7 @@
         <v>43934</v>
       </c>
     </row>
-    <row r="326" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>66</v>
       </c>
@@ -34591,7 +34308,7 @@
         <v>43934</v>
       </c>
     </row>
-    <row r="327" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>17</v>
       </c>
@@ -34642,7 +34359,7 @@
         <v>43934</v>
       </c>
     </row>
-    <row r="328" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>19</v>
       </c>
@@ -34693,7 +34410,7 @@
         <v>43934</v>
       </c>
     </row>
-    <row r="329" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>47</v>
       </c>
@@ -34744,7 +34461,7 @@
         <v>43934</v>
       </c>
     </row>
-    <row r="330" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>58</v>
       </c>
@@ -34795,7 +34512,7 @@
         <v>43934</v>
       </c>
     </row>
-    <row r="331" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>22</v>
       </c>
@@ -34846,7 +34563,7 @@
         <v>43934</v>
       </c>
     </row>
-    <row r="332" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>44</v>
       </c>
@@ -34897,7 +34614,7 @@
         <v>43934</v>
       </c>
     </row>
-    <row r="333" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>25</v>
       </c>
@@ -34948,7 +34665,7 @@
         <v>43934</v>
       </c>
     </row>
-    <row r="334" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>26</v>
       </c>
@@ -34999,7 +34716,7 @@
         <v>43934</v>
       </c>
     </row>
-    <row r="335" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>27</v>
       </c>
@@ -35050,7 +34767,7 @@
         <v>43934</v>
       </c>
     </row>
-    <row r="336" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>28</v>
       </c>
@@ -35101,7 +34818,7 @@
         <v>43935</v>
       </c>
     </row>
-    <row r="337" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>74</v>
       </c>
@@ -35152,7 +34869,7 @@
         <v>43935</v>
       </c>
     </row>
-    <row r="338" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>64</v>
       </c>
@@ -35254,7 +34971,7 @@
         <v>43935</v>
       </c>
     </row>
-    <row r="340" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>65</v>
       </c>
@@ -35305,7 +35022,7 @@
         <v>43935</v>
       </c>
     </row>
-    <row r="341" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>75</v>
       </c>
@@ -35356,7 +35073,7 @@
         <v>43935</v>
       </c>
     </row>
-    <row r="342" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>40</v>
       </c>
@@ -35407,7 +35124,7 @@
         <v>43935</v>
       </c>
     </row>
-    <row r="343" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>54</v>
       </c>
@@ -35458,7 +35175,7 @@
         <v>43935</v>
       </c>
     </row>
-    <row r="344" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>17</v>
       </c>
@@ -35509,7 +35226,7 @@
         <v>43935</v>
       </c>
     </row>
-    <row r="345" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>19</v>
       </c>
@@ -35560,7 +35277,7 @@
         <v>43935</v>
       </c>
     </row>
-    <row r="346" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>20</v>
       </c>
@@ -35611,7 +35328,7 @@
         <v>43935</v>
       </c>
     </row>
-    <row r="347" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>42</v>
       </c>
@@ -35662,7 +35379,7 @@
         <v>43935</v>
       </c>
     </row>
-    <row r="348" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>76</v>
       </c>
@@ -35713,7 +35430,7 @@
         <v>43935</v>
       </c>
     </row>
-    <row r="349" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>58</v>
       </c>
@@ -35764,7 +35481,7 @@
         <v>43935</v>
       </c>
     </row>
-    <row r="350" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>43</v>
       </c>
@@ -35815,7 +35532,7 @@
         <v>43935</v>
       </c>
     </row>
-    <row r="351" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>77</v>
       </c>
@@ -35866,7 +35583,7 @@
         <v>43935</v>
       </c>
     </row>
-    <row r="352" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>78</v>
       </c>
@@ -35917,7 +35634,7 @@
         <v>43935</v>
       </c>
     </row>
-    <row r="353" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>79</v>
       </c>
@@ -35968,7 +35685,7 @@
         <v>43935</v>
       </c>
     </row>
-    <row r="354" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>33</v>
       </c>
@@ -36019,7 +35736,7 @@
         <v>43935</v>
       </c>
     </row>
-    <row r="355" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>21</v>
       </c>
@@ -36070,7 +35787,7 @@
         <v>43935</v>
       </c>
     </row>
-    <row r="356" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>80</v>
       </c>
@@ -36121,7 +35838,7 @@
         <v>43935</v>
       </c>
     </row>
-    <row r="357" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>69</v>
       </c>
@@ -36172,7 +35889,7 @@
         <v>43935</v>
       </c>
     </row>
-    <row r="358" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>22</v>
       </c>
@@ -36223,7 +35940,7 @@
         <v>43935</v>
       </c>
     </row>
-    <row r="359" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>44</v>
       </c>
@@ -36274,7 +35991,7 @@
         <v>43935</v>
       </c>
     </row>
-    <row r="360" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>35</v>
       </c>
@@ -36325,7 +36042,7 @@
         <v>43935</v>
       </c>
     </row>
-    <row r="361" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>36</v>
       </c>
@@ -36376,7 +36093,7 @@
         <v>43935</v>
       </c>
     </row>
-    <row r="362" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>23</v>
       </c>
@@ -36427,7 +36144,7 @@
         <v>43935</v>
       </c>
     </row>
-    <row r="363" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>24</v>
       </c>
@@ -36478,7 +36195,7 @@
         <v>43935</v>
       </c>
     </row>
-    <row r="364" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>25</v>
       </c>
@@ -36529,7 +36246,7 @@
         <v>43935</v>
       </c>
     </row>
-    <row r="365" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>56</v>
       </c>
@@ -36580,7 +36297,7 @@
         <v>43935</v>
       </c>
     </row>
-    <row r="366" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>26</v>
       </c>
@@ -36631,7 +36348,7 @@
         <v>43935</v>
       </c>
     </row>
-    <row r="367" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>27</v>
       </c>
@@ -36682,7 +36399,7 @@
         <v>43935</v>
       </c>
     </row>
-    <row r="368" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>74</v>
       </c>
@@ -36733,7 +36450,7 @@
         <v>43936</v>
       </c>
     </row>
-    <row r="369" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>81</v>
       </c>
@@ -36784,7 +36501,7 @@
         <v>43936</v>
       </c>
     </row>
-    <row r="370" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>82</v>
       </c>
@@ -36835,7 +36552,7 @@
         <v>43936</v>
       </c>
     </row>
-    <row r="371" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>64</v>
       </c>
@@ -36937,7 +36654,7 @@
         <v>43936</v>
       </c>
     </row>
-    <row r="373" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>62</v>
       </c>
@@ -36988,7 +36705,7 @@
         <v>43936</v>
       </c>
     </row>
-    <row r="374" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>83</v>
       </c>
@@ -37039,7 +36756,7 @@
         <v>43936</v>
       </c>
     </row>
-    <row r="375" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>84</v>
       </c>
@@ -37090,7 +36807,7 @@
         <v>43936</v>
       </c>
     </row>
-    <row r="376" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>75</v>
       </c>
@@ -37141,7 +36858,7 @@
         <v>43936</v>
       </c>
     </row>
-    <row r="377" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>40</v>
       </c>
@@ -37192,7 +36909,7 @@
         <v>43936</v>
       </c>
     </row>
-    <row r="378" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>85</v>
       </c>
@@ -37243,7 +36960,7 @@
         <v>43936</v>
       </c>
     </row>
-    <row r="379" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>41</v>
       </c>
@@ -37294,7 +37011,7 @@
         <v>43936</v>
       </c>
     </row>
-    <row r="380" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>17</v>
       </c>
@@ -37345,7 +37062,7 @@
         <v>43936</v>
       </c>
     </row>
-    <row r="381" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>18</v>
       </c>
@@ -37396,7 +37113,7 @@
         <v>43936</v>
       </c>
     </row>
-    <row r="382" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>19</v>
       </c>
@@ -37447,7 +37164,7 @@
         <v>43936</v>
       </c>
     </row>
-    <row r="383" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>20</v>
       </c>
@@ -37498,7 +37215,7 @@
         <v>43936</v>
       </c>
     </row>
-    <row r="384" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>42</v>
       </c>
@@ -37549,7 +37266,7 @@
         <v>43936</v>
       </c>
     </row>
-    <row r="385" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>47</v>
       </c>
@@ -37600,7 +37317,7 @@
         <v>43936</v>
       </c>
     </row>
-    <row r="386" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>58</v>
       </c>
@@ -37651,7 +37368,7 @@
         <v>43936</v>
       </c>
     </row>
-    <row r="387" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>86</v>
       </c>
@@ -37702,7 +37419,7 @@
         <v>43936</v>
       </c>
     </row>
-    <row r="388" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>87</v>
       </c>
@@ -37753,7 +37470,7 @@
         <v>43936</v>
       </c>
     </row>
-    <row r="389" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>78</v>
       </c>
@@ -37804,7 +37521,7 @@
         <v>43936</v>
       </c>
     </row>
-    <row r="390" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>52</v>
       </c>
@@ -37855,7 +37572,7 @@
         <v>43936</v>
       </c>
     </row>
-    <row r="391" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>33</v>
       </c>
@@ -37906,7 +37623,7 @@
         <v>43936</v>
       </c>
     </row>
-    <row r="392" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>80</v>
       </c>
@@ -37957,7 +37674,7 @@
         <v>43936</v>
       </c>
     </row>
-    <row r="393" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>88</v>
       </c>
@@ -38008,7 +37725,7 @@
         <v>43936</v>
       </c>
     </row>
-    <row r="394" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>69</v>
       </c>
@@ -38059,7 +37776,7 @@
         <v>43936</v>
       </c>
     </row>
-    <row r="395" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>22</v>
       </c>
@@ -38110,7 +37827,7 @@
         <v>43936</v>
       </c>
     </row>
-    <row r="396" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>44</v>
       </c>
@@ -38161,7 +37878,7 @@
         <v>43936</v>
       </c>
     </row>
-    <row r="397" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>34</v>
       </c>
@@ -38212,7 +37929,7 @@
         <v>43936</v>
       </c>
     </row>
-    <row r="398" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>35</v>
       </c>
@@ -38263,7 +37980,7 @@
         <v>43936</v>
       </c>
     </row>
-    <row r="399" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>59</v>
       </c>
@@ -38314,7 +38031,7 @@
         <v>43936</v>
       </c>
     </row>
-    <row r="400" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>89</v>
       </c>
@@ -38365,7 +38082,7 @@
         <v>43936</v>
       </c>
     </row>
-    <row r="401" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>23</v>
       </c>
@@ -38416,7 +38133,7 @@
         <v>43936</v>
       </c>
     </row>
-    <row r="402" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>24</v>
       </c>
@@ -38467,7 +38184,7 @@
         <v>43936</v>
       </c>
     </row>
-    <row r="403" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>90</v>
       </c>
@@ -38518,7 +38235,7 @@
         <v>43936</v>
       </c>
     </row>
-    <row r="404" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>25</v>
       </c>
@@ -38569,7 +38286,7 @@
         <v>43936</v>
       </c>
     </row>
-    <row r="405" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>91</v>
       </c>
@@ -38620,7 +38337,7 @@
         <v>43936</v>
       </c>
     </row>
-    <row r="406" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>56</v>
       </c>
@@ -38671,7 +38388,7 @@
         <v>43936</v>
       </c>
     </row>
-    <row r="407" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>92</v>
       </c>
@@ -38722,7 +38439,7 @@
         <v>43936</v>
       </c>
     </row>
-    <row r="408" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>46</v>
       </c>
@@ -38773,7 +38490,7 @@
         <v>43936</v>
       </c>
     </row>
-    <row r="409" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>26</v>
       </c>
@@ -38824,7 +38541,7 @@
         <v>43936</v>
       </c>
     </row>
-    <row r="410" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>27</v>
       </c>
@@ -38875,7 +38592,7 @@
         <v>43936</v>
       </c>
     </row>
-    <row r="411" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>93</v>
       </c>
@@ -38926,7 +38643,7 @@
         <v>43937</v>
       </c>
     </row>
-    <row r="412" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>28</v>
       </c>
@@ -38977,7 +38694,7 @@
         <v>43937</v>
       </c>
     </row>
-    <row r="413" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>74</v>
       </c>
@@ -39028,7 +38745,7 @@
         <v>43937</v>
       </c>
     </row>
-    <row r="414" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>82</v>
       </c>
@@ -39130,7 +38847,7 @@
         <v>43937</v>
       </c>
     </row>
-    <row r="416" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>45</v>
       </c>
@@ -39181,7 +38898,7 @@
         <v>43937</v>
       </c>
     </row>
-    <row r="417" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>62</v>
       </c>
@@ -39232,7 +38949,7 @@
         <v>43937</v>
       </c>
     </row>
-    <row r="418" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>65</v>
       </c>
@@ -39283,7 +39000,7 @@
         <v>43937</v>
       </c>
     </row>
-    <row r="419" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>63</v>
       </c>
@@ -39334,7 +39051,7 @@
         <v>43937</v>
       </c>
     </row>
-    <row r="420" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>84</v>
       </c>
@@ -39385,7 +39102,7 @@
         <v>43937</v>
       </c>
     </row>
-    <row r="421" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>67</v>
       </c>
@@ -39436,7 +39153,7 @@
         <v>43937</v>
       </c>
     </row>
-    <row r="422" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>75</v>
       </c>
@@ -39487,7 +39204,7 @@
         <v>43937</v>
       </c>
     </row>
-    <row r="423" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>17</v>
       </c>
@@ -39538,7 +39255,7 @@
         <v>43937</v>
       </c>
     </row>
-    <row r="424" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>19</v>
       </c>
@@ -39589,7 +39306,7 @@
         <v>43937</v>
       </c>
     </row>
-    <row r="425" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>20</v>
       </c>
@@ -39640,7 +39357,7 @@
         <v>43937</v>
       </c>
     </row>
-    <row r="426" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>43</v>
       </c>
@@ -39691,7 +39408,7 @@
         <v>43937</v>
       </c>
     </row>
-    <row r="427" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>78</v>
       </c>
@@ -39742,7 +39459,7 @@
         <v>43937</v>
       </c>
     </row>
-    <row r="428" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>52</v>
       </c>
@@ -39793,7 +39510,7 @@
         <v>43937</v>
       </c>
     </row>
-    <row r="429" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>94</v>
       </c>
@@ -39844,7 +39561,7 @@
         <v>43937</v>
       </c>
     </row>
-    <row r="430" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>33</v>
       </c>
@@ -39895,7 +39612,7 @@
         <v>43937</v>
       </c>
     </row>
-    <row r="431" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>21</v>
       </c>
@@ -39946,7 +39663,7 @@
         <v>43937</v>
       </c>
     </row>
-    <row r="432" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>22</v>
       </c>
@@ -39997,7 +39714,7 @@
         <v>43937</v>
       </c>
     </row>
-    <row r="433" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>44</v>
       </c>
@@ -40048,7 +39765,7 @@
         <v>43937</v>
       </c>
     </row>
-    <row r="434" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>35</v>
       </c>
@@ -40099,7 +39816,7 @@
         <v>43937</v>
       </c>
     </row>
-    <row r="435" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>36</v>
       </c>
@@ -40150,7 +39867,7 @@
         <v>43937</v>
       </c>
     </row>
-    <row r="436" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>23</v>
       </c>
@@ -40201,7 +39918,7 @@
         <v>43937</v>
       </c>
     </row>
-    <row r="437" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>24</v>
       </c>
@@ -40252,7 +39969,7 @@
         <v>43937</v>
       </c>
     </row>
-    <row r="438" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>25</v>
       </c>
@@ -40303,7 +40020,7 @@
         <v>43937</v>
       </c>
     </row>
-    <row r="439" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>56</v>
       </c>
@@ -40354,7 +40071,7 @@
         <v>43937</v>
       </c>
     </row>
-    <row r="440" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>46</v>
       </c>
@@ -40405,7 +40122,7 @@
         <v>43937</v>
       </c>
     </row>
-    <row r="441" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>26</v>
       </c>
@@ -40456,7 +40173,7 @@
         <v>43937</v>
       </c>
     </row>
-    <row r="442" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>95</v>
       </c>
@@ -40507,7 +40224,7 @@
         <v>43937</v>
       </c>
     </row>
-    <row r="443" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>96</v>
       </c>
@@ -40558,7 +40275,7 @@
         <v>43937</v>
       </c>
     </row>
-    <row r="444" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>27</v>
       </c>
@@ -40609,7 +40326,7 @@
         <v>43937</v>
       </c>
     </row>
-    <row r="445" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>97</v>
       </c>
@@ -40660,7 +40377,7 @@
         <v>43937</v>
       </c>
     </row>
-    <row r="446" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>28</v>
       </c>
@@ -40711,7 +40428,7 @@
         <v>43938</v>
       </c>
     </row>
-    <row r="447" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>82</v>
       </c>
@@ -40813,7 +40530,7 @@
         <v>43938</v>
       </c>
     </row>
-    <row r="449" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>30</v>
       </c>
@@ -40864,7 +40581,7 @@
         <v>43938</v>
       </c>
     </row>
-    <row r="450" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>65</v>
       </c>
@@ -40915,7 +40632,7 @@
         <v>43938</v>
       </c>
     </row>
-    <row r="451" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>84</v>
       </c>
@@ -40966,7 +40683,7 @@
         <v>43938</v>
       </c>
     </row>
-    <row r="452" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>67</v>
       </c>
@@ -41017,7 +40734,7 @@
         <v>43938</v>
       </c>
     </row>
-    <row r="453" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>75</v>
       </c>
@@ -41068,7 +40785,7 @@
         <v>43938</v>
       </c>
     </row>
-    <row r="454" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>98</v>
       </c>
@@ -41119,7 +40836,7 @@
         <v>43938</v>
       </c>
     </row>
-    <row r="455" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>54</v>
       </c>
@@ -41170,7 +40887,7 @@
         <v>43938</v>
       </c>
     </row>
-    <row r="456" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>60</v>
       </c>
@@ -41221,7 +40938,7 @@
         <v>43938</v>
       </c>
     </row>
-    <row r="457" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>17</v>
       </c>
@@ -41272,7 +40989,7 @@
         <v>43938</v>
       </c>
     </row>
-    <row r="458" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>99</v>
       </c>
@@ -41323,7 +41040,7 @@
         <v>43938</v>
       </c>
     </row>
-    <row r="459" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>19</v>
       </c>
@@ -41374,7 +41091,7 @@
         <v>43938</v>
       </c>
     </row>
-    <row r="460" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>42</v>
       </c>
@@ -41425,7 +41142,7 @@
         <v>43938</v>
       </c>
     </row>
-    <row r="461" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>100</v>
       </c>
@@ -41476,7 +41193,7 @@
         <v>43938</v>
       </c>
     </row>
-    <row r="462" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>86</v>
       </c>
@@ -41527,7 +41244,7 @@
         <v>43938</v>
       </c>
     </row>
-    <row r="463" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>78</v>
       </c>
@@ -41578,7 +41295,7 @@
         <v>43938</v>
       </c>
     </row>
-    <row r="464" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>22</v>
       </c>
@@ -41629,7 +41346,7 @@
         <v>43938</v>
       </c>
     </row>
-    <row r="465" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>34</v>
       </c>
@@ -41680,7 +41397,7 @@
         <v>43938</v>
       </c>
     </row>
-    <row r="466" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>89</v>
       </c>
@@ -41731,7 +41448,7 @@
         <v>43938</v>
       </c>
     </row>
-    <row r="467" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>23</v>
       </c>
@@ -41782,7 +41499,7 @@
         <v>43938</v>
       </c>
     </row>
-    <row r="468" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>24</v>
       </c>
@@ -41833,7 +41550,7 @@
         <v>43938</v>
       </c>
     </row>
-    <row r="469" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>25</v>
       </c>
@@ -41884,7 +41601,7 @@
         <v>43938</v>
       </c>
     </row>
-    <row r="470" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>91</v>
       </c>
@@ -41935,7 +41652,7 @@
         <v>43938</v>
       </c>
     </row>
-    <row r="471" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>56</v>
       </c>
@@ -41986,7 +41703,7 @@
         <v>43938</v>
       </c>
     </row>
-    <row r="472" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>26</v>
       </c>
@@ -42037,7 +41754,7 @@
         <v>43938</v>
       </c>
     </row>
-    <row r="473" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>96</v>
       </c>
@@ -42088,7 +41805,7 @@
         <v>43938</v>
       </c>
     </row>
-    <row r="474" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>27</v>
       </c>
@@ -42139,7 +41856,7 @@
         <v>43938</v>
       </c>
     </row>
-    <row r="475" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>28</v>
       </c>
@@ -42190,7 +41907,7 @@
         <v>43939</v>
       </c>
     </row>
-    <row r="476" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>74</v>
       </c>
@@ -42292,7 +42009,7 @@
         <v>43939</v>
       </c>
     </row>
-    <row r="478" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>63</v>
       </c>
@@ -42343,7 +42060,7 @@
         <v>43939</v>
       </c>
     </row>
-    <row r="479" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>55</v>
       </c>
@@ -42394,7 +42111,7 @@
         <v>43939</v>
       </c>
     </row>
-    <row r="480" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>49</v>
       </c>
@@ -42445,7 +42162,7 @@
         <v>43939</v>
       </c>
     </row>
-    <row r="481" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>67</v>
       </c>
@@ -42496,7 +42213,7 @@
         <v>43939</v>
       </c>
     </row>
-    <row r="482" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>75</v>
       </c>
@@ -42547,7 +42264,7 @@
         <v>43939</v>
       </c>
     </row>
-    <row r="483" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>17</v>
       </c>
@@ -42598,7 +42315,7 @@
         <v>43939</v>
       </c>
     </row>
-    <row r="484" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>18</v>
       </c>
@@ -42649,7 +42366,7 @@
         <v>43939</v>
       </c>
     </row>
-    <row r="485" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>19</v>
       </c>
@@ -42700,7 +42417,7 @@
         <v>43939</v>
       </c>
     </row>
-    <row r="486" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>20</v>
       </c>
@@ -42751,7 +42468,7 @@
         <v>43939</v>
       </c>
     </row>
-    <row r="487" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>42</v>
       </c>
@@ -42802,7 +42519,7 @@
         <v>43939</v>
       </c>
     </row>
-    <row r="488" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>47</v>
       </c>
@@ -42853,7 +42570,7 @@
         <v>43939</v>
       </c>
     </row>
-    <row r="489" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>50</v>
       </c>
@@ -42904,7 +42621,7 @@
         <v>43939</v>
       </c>
     </row>
-    <row r="490" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>58</v>
       </c>
@@ -42955,7 +42672,7 @@
         <v>43939</v>
       </c>
     </row>
-    <row r="491" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>78</v>
       </c>
@@ -43006,7 +42723,7 @@
         <v>43939</v>
       </c>
     </row>
-    <row r="492" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>33</v>
       </c>
@@ -43057,7 +42774,7 @@
         <v>43939</v>
       </c>
     </row>
-    <row r="493" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>101</v>
       </c>
@@ -43108,7 +42825,7 @@
         <v>43939</v>
       </c>
     </row>
-    <row r="494" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>22</v>
       </c>
@@ -43159,7 +42876,7 @@
         <v>43939</v>
       </c>
     </row>
-    <row r="495" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>44</v>
       </c>
@@ -43210,7 +42927,7 @@
         <v>43939</v>
       </c>
     </row>
-    <row r="496" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>34</v>
       </c>
@@ -43261,7 +42978,7 @@
         <v>43939</v>
       </c>
     </row>
-    <row r="497" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>35</v>
       </c>
@@ -43312,7 +43029,7 @@
         <v>43939</v>
       </c>
     </row>
-    <row r="498" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>23</v>
       </c>
@@ -43363,7 +43080,7 @@
         <v>43939</v>
       </c>
     </row>
-    <row r="499" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>24</v>
       </c>
@@ -43414,7 +43131,7 @@
         <v>43939</v>
       </c>
     </row>
-    <row r="500" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>90</v>
       </c>
@@ -43465,7 +43182,7 @@
         <v>43939</v>
       </c>
     </row>
-    <row r="501" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>25</v>
       </c>
@@ -43516,7 +43233,7 @@
         <v>43939</v>
       </c>
     </row>
-    <row r="502" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>91</v>
       </c>
@@ -43567,7 +43284,7 @@
         <v>43939</v>
       </c>
     </row>
-    <row r="503" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>56</v>
       </c>
@@ -43618,7 +43335,7 @@
         <v>43939</v>
       </c>
     </row>
-    <row r="504" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>46</v>
       </c>
@@ -43669,7 +43386,7 @@
         <v>43939</v>
       </c>
     </row>
-    <row r="505" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>26</v>
       </c>
@@ -43720,7 +43437,7 @@
         <v>43939</v>
       </c>
     </row>
-    <row r="506" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>95</v>
       </c>
@@ -43771,7 +43488,7 @@
         <v>43939</v>
       </c>
     </row>
-    <row r="507" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>27</v>
       </c>
@@ -43822,7 +43539,7 @@
         <v>43939</v>
       </c>
     </row>
-    <row r="508" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>15</v>
       </c>
@@ -43873,7 +43590,7 @@
         <v>43940</v>
       </c>
     </row>
-    <row r="509" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>28</v>
       </c>
@@ -43924,7 +43641,7 @@
         <v>43940</v>
       </c>
     </row>
-    <row r="510" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>64</v>
       </c>
@@ -44026,7 +43743,7 @@
         <v>43940</v>
       </c>
     </row>
-    <row r="512" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>102</v>
       </c>
@@ -44077,7 +43794,7 @@
         <v>43940</v>
       </c>
     </row>
-    <row r="513" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>103</v>
       </c>
@@ -44128,7 +43845,7 @@
         <v>43940</v>
       </c>
     </row>
-    <row r="514" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>62</v>
       </c>
@@ -44179,7 +43896,7 @@
         <v>43940</v>
       </c>
     </row>
-    <row r="515" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>30</v>
       </c>
@@ -44230,7 +43947,7 @@
         <v>43940</v>
       </c>
     </row>
-    <row r="516" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>65</v>
       </c>
@@ -44281,7 +43998,7 @@
         <v>43940</v>
       </c>
     </row>
-    <row r="517" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>55</v>
       </c>
@@ -44332,7 +44049,7 @@
         <v>43940</v>
       </c>
     </row>
-    <row r="518" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>84</v>
       </c>
@@ -44383,7 +44100,7 @@
         <v>43940</v>
       </c>
     </row>
-    <row r="519" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>67</v>
       </c>
@@ -44434,7 +44151,7 @@
         <v>43940</v>
       </c>
     </row>
-    <row r="520" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>75</v>
       </c>
@@ -44485,7 +44202,7 @@
         <v>43940</v>
       </c>
     </row>
-    <row r="521" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>40</v>
       </c>
@@ -44536,7 +44253,7 @@
         <v>43940</v>
       </c>
     </row>
-    <row r="522" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>54</v>
       </c>
@@ -44587,7 +44304,7 @@
         <v>43940</v>
       </c>
     </row>
-    <row r="523" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>60</v>
       </c>
@@ -44638,7 +44355,7 @@
         <v>43940</v>
       </c>
     </row>
-    <row r="524" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>17</v>
       </c>
@@ -44689,7 +44406,7 @@
         <v>43940</v>
       </c>
     </row>
-    <row r="525" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>99</v>
       </c>
@@ -44740,7 +44457,7 @@
         <v>43940</v>
       </c>
     </row>
-    <row r="526" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>19</v>
       </c>
@@ -44791,7 +44508,7 @@
         <v>43940</v>
       </c>
     </row>
-    <row r="527" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>42</v>
       </c>
@@ -44842,7 +44559,7 @@
         <v>43940</v>
       </c>
     </row>
-    <row r="528" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>52</v>
       </c>
@@ -44893,7 +44610,7 @@
         <v>43940</v>
       </c>
     </row>
-    <row r="529" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>33</v>
       </c>
@@ -44944,7 +44661,7 @@
         <v>43940</v>
       </c>
     </row>
-    <row r="530" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>21</v>
       </c>
@@ -44995,7 +44712,7 @@
         <v>43940</v>
       </c>
     </row>
-    <row r="531" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>22</v>
       </c>
@@ -45046,7 +44763,7 @@
         <v>43940</v>
       </c>
     </row>
-    <row r="532" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>34</v>
       </c>
@@ -45097,7 +44814,7 @@
         <v>43940</v>
       </c>
     </row>
-    <row r="533" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>36</v>
       </c>
@@ -45148,7 +44865,7 @@
         <v>43940</v>
       </c>
     </row>
-    <row r="534" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>23</v>
       </c>
@@ -45199,7 +44916,7 @@
         <v>43940</v>
       </c>
     </row>
-    <row r="535" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>104</v>
       </c>
@@ -45250,7 +44967,7 @@
         <v>43940</v>
       </c>
     </row>
-    <row r="536" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>70</v>
       </c>
@@ -45301,7 +45018,7 @@
         <v>43940</v>
       </c>
     </row>
-    <row r="537" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>25</v>
       </c>
@@ -45352,7 +45069,7 @@
         <v>43940</v>
       </c>
     </row>
-    <row r="538" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>56</v>
       </c>
@@ -45403,7 +45120,7 @@
         <v>43940</v>
       </c>
     </row>
-    <row r="539" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>46</v>
       </c>
@@ -45454,7 +45171,7 @@
         <v>43940</v>
       </c>
     </row>
-    <row r="540" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>26</v>
       </c>
@@ -45505,7 +45222,7 @@
         <v>43940</v>
       </c>
     </row>
-    <row r="541" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>95</v>
       </c>
@@ -45556,7 +45273,7 @@
         <v>43940</v>
       </c>
     </row>
-    <row r="542" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>27</v>
       </c>
@@ -45607,7 +45324,7 @@
         <v>43940</v>
       </c>
     </row>
-    <row r="543" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>28</v>
       </c>
@@ -45658,7 +45375,7 @@
         <v>43941</v>
       </c>
     </row>
-    <row r="544" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>74</v>
       </c>
@@ -45709,7 +45426,7 @@
         <v>43941</v>
       </c>
     </row>
-    <row r="545" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>82</v>
       </c>
@@ -45760,7 +45477,7 @@
         <v>43941</v>
       </c>
     </row>
-    <row r="546" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>64</v>
       </c>
@@ -45862,7 +45579,7 @@
         <v>43941</v>
       </c>
     </row>
-    <row r="548" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>57</v>
       </c>
@@ -45913,7 +45630,7 @@
         <v>43941</v>
       </c>
     </row>
-    <row r="549" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>62</v>
       </c>
@@ -45964,7 +45681,7 @@
         <v>43941</v>
       </c>
     </row>
-    <row r="550" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>63</v>
       </c>
@@ -46015,7 +45732,7 @@
         <v>43941</v>
       </c>
     </row>
-    <row r="551" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>49</v>
       </c>
@@ -46066,7 +45783,7 @@
         <v>43941</v>
       </c>
     </row>
-    <row r="552" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>84</v>
       </c>
@@ -46117,7 +45834,7 @@
         <v>43941</v>
       </c>
     </row>
-    <row r="553" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>67</v>
       </c>
@@ -46168,7 +45885,7 @@
         <v>43941</v>
       </c>
     </row>
-    <row r="554" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>75</v>
       </c>
@@ -46219,7 +45936,7 @@
         <v>43941</v>
       </c>
     </row>
-    <row r="555" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>40</v>
       </c>
@@ -46270,7 +45987,7 @@
         <v>43941</v>
       </c>
     </row>
-    <row r="556" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>105</v>
       </c>
@@ -46321,7 +46038,7 @@
         <v>43941</v>
       </c>
     </row>
-    <row r="557" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>54</v>
       </c>
@@ -46372,7 +46089,7 @@
         <v>43941</v>
       </c>
     </row>
-    <row r="558" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>106</v>
       </c>
@@ -46423,7 +46140,7 @@
         <v>43941</v>
       </c>
     </row>
-    <row r="559" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>60</v>
       </c>
@@ -46474,7 +46191,7 @@
         <v>43941</v>
       </c>
     </row>
-    <row r="560" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>17</v>
       </c>
@@ -46525,7 +46242,7 @@
         <v>43941</v>
       </c>
     </row>
-    <row r="561" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>99</v>
       </c>
@@ -46576,7 +46293,7 @@
         <v>43941</v>
       </c>
     </row>
-    <row r="562" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>19</v>
       </c>
@@ -46627,7 +46344,7 @@
         <v>43941</v>
       </c>
     </row>
-    <row r="563" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>20</v>
       </c>
@@ -46678,7 +46395,7 @@
         <v>43941</v>
       </c>
     </row>
-    <row r="564" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>42</v>
       </c>
@@ -46729,7 +46446,7 @@
         <v>43941</v>
       </c>
     </row>
-    <row r="565" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>48</v>
       </c>
@@ -46780,7 +46497,7 @@
         <v>43941</v>
       </c>
     </row>
-    <row r="566" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>76</v>
       </c>
@@ -46831,7 +46548,7 @@
         <v>43941</v>
       </c>
     </row>
-    <row r="567" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>107</v>
       </c>
@@ -46882,7 +46599,7 @@
         <v>43941</v>
       </c>
     </row>
-    <row r="568" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>79</v>
       </c>
@@ -46933,7 +46650,7 @@
         <v>43941</v>
       </c>
     </row>
-    <row r="569" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>52</v>
       </c>
@@ -46984,7 +46701,7 @@
         <v>43941</v>
       </c>
     </row>
-    <row r="570" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>33</v>
       </c>
@@ -47035,7 +46752,7 @@
         <v>43941</v>
       </c>
     </row>
-    <row r="571" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>22</v>
       </c>
@@ -47086,7 +46803,7 @@
         <v>43941</v>
       </c>
     </row>
-    <row r="572" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>34</v>
       </c>
@@ -47137,7 +46854,7 @@
         <v>43941</v>
       </c>
     </row>
-    <row r="573" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>36</v>
       </c>
@@ -47188,7 +46905,7 @@
         <v>43941</v>
       </c>
     </row>
-    <row r="574" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>23</v>
       </c>
@@ -47239,7 +46956,7 @@
         <v>43941</v>
       </c>
     </row>
-    <row r="575" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>90</v>
       </c>
@@ -47290,7 +47007,7 @@
         <v>43941</v>
       </c>
     </row>
-    <row r="576" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>108</v>
       </c>
@@ -47341,7 +47058,7 @@
         <v>43941</v>
       </c>
     </row>
-    <row r="577" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>25</v>
       </c>
@@ -47392,7 +47109,7 @@
         <v>43941</v>
       </c>
     </row>
-    <row r="578" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>56</v>
       </c>
@@ -47443,7 +47160,7 @@
         <v>43941</v>
       </c>
     </row>
-    <row r="579" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>46</v>
       </c>
@@ -47494,7 +47211,7 @@
         <v>43941</v>
       </c>
     </row>
-    <row r="580" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>26</v>
       </c>
@@ -47545,7 +47262,7 @@
         <v>43941</v>
       </c>
     </row>
-    <row r="581" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>27</v>
       </c>
@@ -47596,7 +47313,7 @@
         <v>43941</v>
       </c>
     </row>
-    <row r="582" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>28</v>
       </c>
@@ -47647,7 +47364,7 @@
         <v>43942</v>
       </c>
     </row>
-    <row r="583" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>82</v>
       </c>
@@ -47698,7 +47415,7 @@
         <v>43942</v>
       </c>
     </row>
-    <row r="584" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>64</v>
       </c>
@@ -47800,7 +47517,7 @@
         <v>43942</v>
       </c>
     </row>
-    <row r="586" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>62</v>
       </c>
@@ -47851,7 +47568,7 @@
         <v>43942</v>
       </c>
     </row>
-    <row r="587" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>65</v>
       </c>
@@ -47902,7 +47619,7 @@
         <v>43942</v>
       </c>
     </row>
-    <row r="588" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>55</v>
       </c>
@@ -47953,7 +47670,7 @@
         <v>43942</v>
       </c>
     </row>
-    <row r="589" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>49</v>
       </c>
@@ -48004,7 +47721,7 @@
         <v>43942</v>
       </c>
     </row>
-    <row r="590" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>84</v>
       </c>
@@ -48055,7 +47772,7 @@
         <v>43942</v>
       </c>
     </row>
-    <row r="591" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>40</v>
       </c>
@@ -48106,7 +47823,7 @@
         <v>43942</v>
       </c>
     </row>
-    <row r="592" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>60</v>
       </c>
@@ -48157,7 +47874,7 @@
         <v>43942</v>
       </c>
     </row>
-    <row r="593" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>17</v>
       </c>
@@ -48208,7 +47925,7 @@
         <v>43942</v>
       </c>
     </row>
-    <row r="594" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>19</v>
       </c>
@@ -48259,7 +47976,7 @@
         <v>43942</v>
       </c>
     </row>
-    <row r="595" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>20</v>
       </c>
@@ -48310,7 +48027,7 @@
         <v>43942</v>
       </c>
     </row>
-    <row r="596" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>42</v>
       </c>
@@ -48361,7 +48078,7 @@
         <v>43942</v>
       </c>
     </row>
-    <row r="597" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>48</v>
       </c>
@@ -48412,7 +48129,7 @@
         <v>43942</v>
       </c>
     </row>
-    <row r="598" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>50</v>
       </c>
@@ -48463,7 +48180,7 @@
         <v>43942</v>
       </c>
     </row>
-    <row r="599" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>77</v>
       </c>
@@ -48514,7 +48231,7 @@
         <v>43942</v>
       </c>
     </row>
-    <row r="600" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>52</v>
       </c>
@@ -48565,7 +48282,7 @@
         <v>43942</v>
       </c>
     </row>
-    <row r="601" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>33</v>
       </c>
@@ -48616,7 +48333,7 @@
         <v>43942</v>
       </c>
     </row>
-    <row r="602" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>109</v>
       </c>
@@ -48667,7 +48384,7 @@
         <v>43942</v>
       </c>
     </row>
-    <row r="603" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>69</v>
       </c>
@@ -48718,7 +48435,7 @@
         <v>43942</v>
       </c>
     </row>
-    <row r="604" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>22</v>
       </c>
@@ -48769,7 +48486,7 @@
         <v>43942</v>
       </c>
     </row>
-    <row r="605" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>34</v>
       </c>
@@ -48820,7 +48537,7 @@
         <v>43942</v>
       </c>
     </row>
-    <row r="606" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>35</v>
       </c>
@@ -48871,7 +48588,7 @@
         <v>43942</v>
       </c>
     </row>
-    <row r="607" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>36</v>
       </c>
@@ -48922,7 +48639,7 @@
         <v>43942</v>
       </c>
     </row>
-    <row r="608" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>110</v>
       </c>
@@ -48973,7 +48690,7 @@
         <v>43942</v>
       </c>
     </row>
-    <row r="609" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>24</v>
       </c>
@@ -49024,7 +48741,7 @@
         <v>43942</v>
       </c>
     </row>
-    <row r="610" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>25</v>
       </c>
@@ -49075,7 +48792,7 @@
         <v>43942</v>
       </c>
     </row>
-    <row r="611" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>56</v>
       </c>
@@ -49126,7 +48843,7 @@
         <v>43942</v>
       </c>
     </row>
-    <row r="612" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>111</v>
       </c>
@@ -49177,7 +48894,7 @@
         <v>43942</v>
       </c>
     </row>
-    <row r="613" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>46</v>
       </c>
@@ -49228,7 +48945,7 @@
         <v>43942</v>
       </c>
     </row>
-    <row r="614" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>39</v>
       </c>
@@ -49279,7 +48996,7 @@
         <v>43942</v>
       </c>
     </row>
-    <row r="615" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>26</v>
       </c>
@@ -49330,7 +49047,7 @@
         <v>43942</v>
       </c>
     </row>
-    <row r="616" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>53</v>
       </c>
@@ -49381,7 +49098,7 @@
         <v>43942</v>
       </c>
     </row>
-    <row r="617" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>27</v>
       </c>
@@ -49432,7 +49149,7 @@
         <v>43942</v>
       </c>
     </row>
-    <row r="618" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>15</v>
       </c>
@@ -49483,7 +49200,7 @@
         <v>43943</v>
       </c>
     </row>
-    <row r="619" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>28</v>
       </c>
@@ -49534,7 +49251,7 @@
         <v>43943</v>
       </c>
     </row>
-    <row r="620" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>112</v>
       </c>
@@ -49585,7 +49302,7 @@
         <v>43943</v>
       </c>
     </row>
-    <row r="621" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>74</v>
       </c>
@@ -49687,7 +49404,7 @@
         <v>43943</v>
       </c>
     </row>
-    <row r="623" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>45</v>
       </c>
@@ -49738,7 +49455,7 @@
         <v>43943</v>
       </c>
     </row>
-    <row r="624" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>55</v>
       </c>
@@ -49789,7 +49506,7 @@
         <v>43943</v>
       </c>
     </row>
-    <row r="625" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>84</v>
       </c>
@@ -49840,7 +49557,7 @@
         <v>43943</v>
       </c>
     </row>
-    <row r="626" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>67</v>
       </c>
@@ -49891,7 +49608,7 @@
         <v>43943</v>
       </c>
     </row>
-    <row r="627" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>75</v>
       </c>
@@ -49942,7 +49659,7 @@
         <v>43943</v>
       </c>
     </row>
-    <row r="628" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>105</v>
       </c>
@@ -49993,7 +49710,7 @@
         <v>43943</v>
       </c>
     </row>
-    <row r="629" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>98</v>
       </c>
@@ -50044,7 +49761,7 @@
         <v>43943</v>
       </c>
     </row>
-    <row r="630" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>113</v>
       </c>
@@ -50095,7 +49812,7 @@
         <v>43943</v>
       </c>
     </row>
-    <row r="631" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>41</v>
       </c>
@@ -50146,7 +49863,7 @@
         <v>43943</v>
       </c>
     </row>
-    <row r="632" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>17</v>
       </c>
@@ -50197,7 +49914,7 @@
         <v>43943</v>
       </c>
     </row>
-    <row r="633" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
         <v>19</v>
       </c>
@@ -50248,7 +49965,7 @@
         <v>43943</v>
       </c>
     </row>
-    <row r="634" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
         <v>42</v>
       </c>
@@ -50299,7 +50016,7 @@
         <v>43943</v>
       </c>
     </row>
-    <row r="635" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
         <v>48</v>
       </c>
@@ -50350,7 +50067,7 @@
         <v>43943</v>
       </c>
     </row>
-    <row r="636" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
         <v>77</v>
       </c>
@@ -50401,7 +50118,7 @@
         <v>43943</v>
       </c>
     </row>
-    <row r="637" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
         <v>87</v>
       </c>
@@ -50452,7 +50169,7 @@
         <v>43943</v>
       </c>
     </row>
-    <row r="638" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
         <v>22</v>
       </c>
@@ -50503,7 +50220,7 @@
         <v>43943</v>
       </c>
     </row>
-    <row r="639" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
         <v>34</v>
       </c>
@@ -50554,7 +50271,7 @@
         <v>43943</v>
       </c>
     </row>
-    <row r="640" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
         <v>36</v>
       </c>
@@ -50605,7 +50322,7 @@
         <v>43943</v>
       </c>
     </row>
-    <row r="641" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
         <v>25</v>
       </c>
@@ -50656,7 +50373,7 @@
         <v>43943</v>
       </c>
     </row>
-    <row r="642" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
         <v>56</v>
       </c>
@@ -50707,7 +50424,7 @@
         <v>43943</v>
       </c>
     </row>
-    <row r="643" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>111</v>
       </c>
@@ -50758,7 +50475,7 @@
         <v>43943</v>
       </c>
     </row>
-    <row r="644" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
         <v>46</v>
       </c>
@@ -50809,7 +50526,7 @@
         <v>43943</v>
       </c>
     </row>
-    <row r="645" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
         <v>26</v>
       </c>
@@ -50860,7 +50577,7 @@
         <v>43943</v>
       </c>
     </row>
-    <row r="646" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>96</v>
       </c>
@@ -50911,7 +50628,7 @@
         <v>43943</v>
       </c>
     </row>
-    <row r="647" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
         <v>27</v>
       </c>
@@ -51013,7 +50730,7 @@
         <v>43944</v>
       </c>
     </row>
-    <row r="649" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
         <v>55</v>
       </c>
@@ -51064,7 +50781,7 @@
         <v>43944</v>
       </c>
     </row>
-    <row r="650" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
         <v>114</v>
       </c>
@@ -51115,7 +50832,7 @@
         <v>43944</v>
       </c>
     </row>
-    <row r="651" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
         <v>75</v>
       </c>
@@ -51166,7 +50883,7 @@
         <v>43944</v>
       </c>
     </row>
-    <row r="652" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
         <v>40</v>
       </c>
@@ -51217,7 +50934,7 @@
         <v>43944</v>
       </c>
     </row>
-    <row r="653" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
         <v>85</v>
       </c>
@@ -51268,7 +50985,7 @@
         <v>43944</v>
       </c>
     </row>
-    <row r="654" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
         <v>41</v>
       </c>
@@ -51319,7 +51036,7 @@
         <v>43944</v>
       </c>
     </row>
-    <row r="655" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
         <v>60</v>
       </c>
@@ -51370,7 +51087,7 @@
         <v>43944</v>
       </c>
     </row>
-    <row r="656" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
         <v>17</v>
       </c>
@@ -51421,7 +51138,7 @@
         <v>43944</v>
       </c>
     </row>
-    <row r="657" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
         <v>19</v>
       </c>
@@ -51472,7 +51189,7 @@
         <v>43944</v>
       </c>
     </row>
-    <row r="658" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
         <v>48</v>
       </c>
@@ -51523,7 +51240,7 @@
         <v>43944</v>
       </c>
     </row>
-    <row r="659" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
         <v>22</v>
       </c>
@@ -51574,7 +51291,7 @@
         <v>43944</v>
       </c>
     </row>
-    <row r="660" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
         <v>23</v>
       </c>
@@ -51625,7 +51342,7 @@
         <v>43944</v>
       </c>
     </row>
-    <row r="661" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
         <v>25</v>
       </c>
@@ -51676,7 +51393,7 @@
         <v>43944</v>
       </c>
     </row>
-    <row r="662" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
         <v>46</v>
       </c>
@@ -51727,7 +51444,7 @@
         <v>43944</v>
       </c>
     </row>
-    <row r="663" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
         <v>26</v>
       </c>
@@ -51778,7 +51495,7 @@
         <v>43944</v>
       </c>
     </row>
-    <row r="664" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
         <v>27</v>
       </c>
@@ -51829,7 +51546,7 @@
         <v>43944</v>
       </c>
     </row>
-    <row r="665" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
         <v>28</v>
       </c>
@@ -51931,7 +51648,7 @@
         <v>43945</v>
       </c>
     </row>
-    <row r="667" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
         <v>57</v>
       </c>
@@ -51982,7 +51699,7 @@
         <v>43945</v>
       </c>
     </row>
-    <row r="668" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
         <v>40</v>
       </c>
@@ -52033,7 +51750,7 @@
         <v>43945</v>
       </c>
     </row>
-    <row r="669" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
         <v>17</v>
       </c>
@@ -52084,7 +51801,7 @@
         <v>43945</v>
       </c>
     </row>
-    <row r="670" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
         <v>99</v>
       </c>
@@ -52135,7 +51852,7 @@
         <v>43945</v>
       </c>
     </row>
-    <row r="671" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
         <v>19</v>
       </c>
@@ -52186,7 +51903,7 @@
         <v>43945</v>
       </c>
     </row>
-    <row r="672" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
         <v>43</v>
       </c>
@@ -52237,7 +51954,7 @@
         <v>43945</v>
       </c>
     </row>
-    <row r="673" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
         <v>101</v>
       </c>
@@ -52288,7 +52005,7 @@
         <v>43945</v>
       </c>
     </row>
-    <row r="674" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
         <v>115</v>
       </c>
@@ -52339,7 +52056,7 @@
         <v>43945</v>
       </c>
     </row>
-    <row r="675" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
         <v>22</v>
       </c>
@@ -52390,7 +52107,7 @@
         <v>43945</v>
       </c>
     </row>
-    <row r="676" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
         <v>34</v>
       </c>
@@ -52441,7 +52158,7 @@
         <v>43945</v>
       </c>
     </row>
-    <row r="677" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
         <v>23</v>
       </c>
@@ -52492,7 +52209,7 @@
         <v>43945</v>
       </c>
     </row>
-    <row r="678" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
         <v>51</v>
       </c>
@@ -52543,7 +52260,7 @@
         <v>43945</v>
       </c>
     </row>
-    <row r="679" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
         <v>25</v>
       </c>
@@ -52594,7 +52311,7 @@
         <v>43945</v>
       </c>
     </row>
-    <row r="680" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
         <v>26</v>
       </c>
@@ -52645,7 +52362,7 @@
         <v>43945</v>
       </c>
     </row>
-    <row r="681" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
         <v>27</v>
       </c>
@@ -52747,7 +52464,7 @@
         <v>43946</v>
       </c>
     </row>
-    <row r="683" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
         <v>105</v>
       </c>
@@ -52798,7 +52515,7 @@
         <v>43946</v>
       </c>
     </row>
-    <row r="684" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
         <v>17</v>
       </c>
@@ -52849,7 +52566,7 @@
         <v>43946</v>
       </c>
     </row>
-    <row r="685" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
         <v>22</v>
       </c>
@@ -52900,7 +52617,7 @@
         <v>43946</v>
       </c>
     </row>
-    <row r="686" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
         <v>34</v>
       </c>
@@ -52951,7 +52668,7 @@
         <v>43946</v>
       </c>
     </row>
-    <row r="687" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
         <v>89</v>
       </c>
@@ -53002,7 +52719,7 @@
         <v>43946</v>
       </c>
     </row>
-    <row r="688" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
         <v>36</v>
       </c>
@@ -53053,7 +52770,7 @@
         <v>43946</v>
       </c>
     </row>
-    <row r="689" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
         <v>23</v>
       </c>
@@ -53104,7 +52821,7 @@
         <v>43946</v>
       </c>
     </row>
-    <row r="690" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
         <v>24</v>
       </c>
@@ -53155,7 +52872,7 @@
         <v>43946</v>
       </c>
     </row>
-    <row r="691" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
         <v>51</v>
       </c>
@@ -53206,7 +52923,7 @@
         <v>43946</v>
       </c>
     </row>
-    <row r="692" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
         <v>25</v>
       </c>
@@ -53257,7 +52974,7 @@
         <v>43946</v>
       </c>
     </row>
-    <row r="693" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
         <v>26</v>
       </c>
@@ -53308,7 +53025,7 @@
         <v>43946</v>
       </c>
     </row>
-    <row r="694" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
         <v>27</v>
       </c>
@@ -53410,7 +53127,7 @@
         <v>43947</v>
       </c>
     </row>
-    <row r="696" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
         <v>30</v>
       </c>
@@ -53461,7 +53178,7 @@
         <v>43947</v>
       </c>
     </row>
-    <row r="697" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
         <v>55</v>
       </c>
@@ -53512,7 +53229,7 @@
         <v>43947</v>
       </c>
     </row>
-    <row r="698" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
         <v>75</v>
       </c>
@@ -53563,7 +53280,7 @@
         <v>43947</v>
       </c>
     </row>
-    <row r="699" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
         <v>17</v>
       </c>
@@ -53614,7 +53331,7 @@
         <v>43947</v>
       </c>
     </row>
-    <row r="700" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
         <v>19</v>
       </c>
@@ -53665,7 +53382,7 @@
         <v>43947</v>
       </c>
     </row>
-    <row r="701" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
         <v>20</v>
       </c>
@@ -53716,7 +53433,7 @@
         <v>43947</v>
       </c>
     </row>
-    <row r="702" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
         <v>22</v>
       </c>
@@ -53767,7 +53484,7 @@
         <v>43947</v>
       </c>
     </row>
-    <row r="703" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
         <v>36</v>
       </c>
@@ -53818,7 +53535,7 @@
         <v>43947</v>
       </c>
     </row>
-    <row r="704" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
         <v>24</v>
       </c>
@@ -53869,7 +53586,7 @@
         <v>43947</v>
       </c>
     </row>
-    <row r="705" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
         <v>25</v>
       </c>
@@ -53920,7 +53637,7 @@
         <v>43947</v>
       </c>
     </row>
-    <row r="706" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
         <v>39</v>
       </c>
@@ -53971,7 +53688,7 @@
         <v>43947</v>
       </c>
     </row>
-    <row r="707" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
         <v>26</v>
       </c>
@@ -54022,7 +53739,7 @@
         <v>43947</v>
       </c>
     </row>
-    <row r="708" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
         <v>27</v>
       </c>
@@ -54124,7 +53841,7 @@
         <v>43948</v>
       </c>
     </row>
-    <row r="710" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
         <v>55</v>
       </c>
@@ -54175,7 +53892,7 @@
         <v>43948</v>
       </c>
     </row>
-    <row r="711" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
         <v>75</v>
       </c>
@@ -54226,7 +53943,7 @@
         <v>43948</v>
       </c>
     </row>
-    <row r="712" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
         <v>41</v>
       </c>
@@ -54277,7 +53994,7 @@
         <v>43948</v>
       </c>
     </row>
-    <row r="713" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
         <v>17</v>
       </c>
@@ -54328,7 +54045,7 @@
         <v>43948</v>
       </c>
     </row>
-    <row r="714" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
         <v>48</v>
       </c>
@@ -54379,7 +54096,7 @@
         <v>43948</v>
       </c>
     </row>
-    <row r="715" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
         <v>47</v>
       </c>
@@ -54430,7 +54147,7 @@
         <v>43948</v>
       </c>
     </row>
-    <row r="716" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
         <v>52</v>
       </c>
@@ -54481,7 +54198,7 @@
         <v>43948</v>
       </c>
     </row>
-    <row r="717" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
         <v>72</v>
       </c>
@@ -54532,7 +54249,7 @@
         <v>43948</v>
       </c>
     </row>
-    <row r="718" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
         <v>69</v>
       </c>
@@ -54583,7 +54300,7 @@
         <v>43948</v>
       </c>
     </row>
-    <row r="719" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
         <v>22</v>
       </c>
@@ -54634,7 +54351,7 @@
         <v>43948</v>
       </c>
     </row>
-    <row r="720" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
         <v>34</v>
       </c>
@@ -54685,7 +54402,7 @@
         <v>43948</v>
       </c>
     </row>
-    <row r="721" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
         <v>56</v>
       </c>
@@ -54736,7 +54453,7 @@
         <v>43948</v>
       </c>
     </row>
-    <row r="722" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
         <v>39</v>
       </c>
@@ -54787,7 +54504,7 @@
         <v>43948</v>
       </c>
     </row>
-    <row r="723" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
         <v>26</v>
       </c>
@@ -54838,7 +54555,7 @@
         <v>43948</v>
       </c>
     </row>
-    <row r="724" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
         <v>96</v>
       </c>
@@ -54889,7 +54606,7 @@
         <v>43948</v>
       </c>
     </row>
-    <row r="725" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
         <v>27</v>
       </c>
@@ -54991,7 +54708,7 @@
         <v>43949</v>
       </c>
     </row>
-    <row r="727" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
         <v>57</v>
       </c>
@@ -55042,7 +54759,7 @@
         <v>43949</v>
       </c>
     </row>
-    <row r="728" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
         <v>17</v>
       </c>
@@ -55093,7 +54810,7 @@
         <v>43949</v>
       </c>
     </row>
-    <row r="729" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
         <v>48</v>
       </c>
@@ -55144,7 +54861,7 @@
         <v>43949</v>
       </c>
     </row>
-    <row r="730" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
         <v>31</v>
       </c>
@@ -55195,7 +54912,7 @@
         <v>43949</v>
       </c>
     </row>
-    <row r="731" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
         <v>22</v>
       </c>
@@ -55246,7 +54963,7 @@
         <v>43949</v>
       </c>
     </row>
-    <row r="732" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
         <v>34</v>
       </c>
@@ -55297,7 +55014,7 @@
         <v>43949</v>
       </c>
     </row>
-    <row r="733" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
         <v>59</v>
       </c>
@@ -55348,7 +55065,7 @@
         <v>43949</v>
       </c>
     </row>
-    <row r="734" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
         <v>25</v>
       </c>
@@ -55399,7 +55116,7 @@
         <v>43949</v>
       </c>
     </row>
-    <row r="735" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
         <v>26</v>
       </c>
@@ -55450,7 +55167,7 @@
         <v>43949</v>
       </c>
     </row>
-    <row r="736" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
         <v>27</v>
       </c>
@@ -55552,7 +55269,7 @@
         <v>43950</v>
       </c>
     </row>
-    <row r="738" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
         <v>57</v>
       </c>
@@ -55603,7 +55320,7 @@
         <v>43950</v>
       </c>
     </row>
-    <row r="739" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
         <v>65</v>
       </c>
@@ -55654,7 +55371,7 @@
         <v>43950</v>
       </c>
     </row>
-    <row r="740" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
         <v>105</v>
       </c>
@@ -55705,7 +55422,7 @@
         <v>43950</v>
       </c>
     </row>
-    <row r="741" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
         <v>17</v>
       </c>
@@ -55756,7 +55473,7 @@
         <v>43950</v>
       </c>
     </row>
-    <row r="742" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
         <v>19</v>
       </c>
@@ -55807,7 +55524,7 @@
         <v>43950</v>
       </c>
     </row>
-    <row r="743" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
         <v>47</v>
       </c>
@@ -55858,7 +55575,7 @@
         <v>43950</v>
       </c>
     </row>
-    <row r="744" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
         <v>116</v>
       </c>
@@ -55909,7 +55626,7 @@
         <v>43950</v>
       </c>
     </row>
-    <row r="745" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
         <v>22</v>
       </c>
@@ -55960,7 +55677,7 @@
         <v>43950</v>
       </c>
     </row>
-    <row r="746" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A746" t="s">
         <v>25</v>
       </c>
@@ -56011,7 +55728,7 @@
         <v>43950</v>
       </c>
     </row>
-    <row r="747" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A747" t="s">
         <v>26</v>
       </c>
@@ -56062,7 +55779,7 @@
         <v>43950</v>
       </c>
     </row>
-    <row r="748" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A748" t="s">
         <v>27</v>
       </c>
@@ -56164,7 +55881,7 @@
         <v>43951</v>
       </c>
     </row>
-    <row r="750" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A750" t="s">
         <v>17</v>
       </c>
@@ -56215,7 +55932,7 @@
         <v>43951</v>
       </c>
     </row>
-    <row r="751" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
         <v>48</v>
       </c>
@@ -56266,7 +55983,7 @@
         <v>43951</v>
       </c>
     </row>
-    <row r="752" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A752" t="s">
         <v>115</v>
       </c>
@@ -56317,7 +56034,7 @@
         <v>43951</v>
       </c>
     </row>
-    <row r="753" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A753" t="s">
         <v>22</v>
       </c>
@@ -56368,7 +56085,7 @@
         <v>43951</v>
       </c>
     </row>
-    <row r="754" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
         <v>23</v>
       </c>
@@ -56419,7 +56136,7 @@
         <v>43951</v>
       </c>
     </row>
-    <row r="755" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A755" t="s">
         <v>24</v>
       </c>
@@ -56470,7 +56187,7 @@
         <v>43951</v>
       </c>
     </row>
-    <row r="756" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
         <v>117</v>
       </c>
@@ -56521,7 +56238,7 @@
         <v>43951</v>
       </c>
     </row>
-    <row r="757" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
         <v>25</v>
       </c>
@@ -56572,7 +56289,7 @@
         <v>43951</v>
       </c>
     </row>
-    <row r="758" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
         <v>26</v>
       </c>
@@ -56623,7 +56340,7 @@
         <v>43951</v>
       </c>
     </row>
-    <row r="759" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A759" t="s">
         <v>27</v>
       </c>
@@ -56725,7 +56442,7 @@
         <v>43952</v>
       </c>
     </row>
-    <row r="761" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A761" t="s">
         <v>62</v>
       </c>
@@ -56776,7 +56493,7 @@
         <v>43952</v>
       </c>
     </row>
-    <row r="762" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A762" t="s">
         <v>67</v>
       </c>
@@ -56827,7 +56544,7 @@
         <v>43952</v>
       </c>
     </row>
-    <row r="763" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A763" t="s">
         <v>60</v>
       </c>
@@ -56878,7 +56595,7 @@
         <v>43952</v>
       </c>
     </row>
-    <row r="764" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
         <v>17</v>
       </c>
@@ -56929,7 +56646,7 @@
         <v>43952</v>
       </c>
     </row>
-    <row r="765" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A765" t="s">
         <v>20</v>
       </c>
@@ -56980,7 +56697,7 @@
         <v>43952</v>
       </c>
     </row>
-    <row r="766" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A766" t="s">
         <v>22</v>
       </c>
@@ -57031,7 +56748,7 @@
         <v>43952</v>
       </c>
     </row>
-    <row r="767" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A767" t="s">
         <v>23</v>
       </c>
@@ -57082,7 +56799,7 @@
         <v>43952</v>
       </c>
     </row>
-    <row r="768" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A768" t="s">
         <v>56</v>
       </c>
@@ -57133,7 +56850,7 @@
         <v>43952</v>
       </c>
     </row>
-    <row r="769" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A769" t="s">
         <v>27</v>
       </c>
@@ -57235,7 +56952,7 @@
         <v>43953</v>
       </c>
     </row>
-    <row r="771" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A771" t="s">
         <v>75</v>
       </c>
@@ -57286,7 +57003,7 @@
         <v>43953</v>
       </c>
     </row>
-    <row r="772" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A772" t="s">
         <v>17</v>
       </c>
@@ -57337,7 +57054,7 @@
         <v>43953</v>
       </c>
     </row>
-    <row r="773" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
         <v>21</v>
       </c>
@@ -57388,7 +57105,7 @@
         <v>43953</v>
       </c>
     </row>
-    <row r="774" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A774" t="s">
         <v>22</v>
       </c>
@@ -57439,7 +57156,7 @@
         <v>43953</v>
       </c>
     </row>
-    <row r="775" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A775" t="s">
         <v>34</v>
       </c>
@@ -57490,7 +57207,7 @@
         <v>43953</v>
       </c>
     </row>
-    <row r="776" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A776" t="s">
         <v>23</v>
       </c>
@@ -57541,7 +57258,7 @@
         <v>43953</v>
       </c>
     </row>
-    <row r="777" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A777" t="s">
         <v>25</v>
       </c>
@@ -57592,7 +57309,7 @@
         <v>43953</v>
       </c>
     </row>
-    <row r="778" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A778" t="s">
         <v>27</v>
       </c>
@@ -57643,7 +57360,7 @@
         <v>43953</v>
       </c>
     </row>
-    <row r="779" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A779" t="s">
         <v>28</v>
       </c>
@@ -57745,7 +57462,7 @@
         <v>43954</v>
       </c>
     </row>
-    <row r="781" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A781" t="s">
         <v>84</v>
       </c>
@@ -57796,7 +57513,7 @@
         <v>43954</v>
       </c>
     </row>
-    <row r="782" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A782" t="s">
         <v>75</v>
       </c>
@@ -57847,7 +57564,7 @@
         <v>43954</v>
       </c>
     </row>
-    <row r="783" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A783" t="s">
         <v>40</v>
       </c>
@@ -57898,7 +57615,7 @@
         <v>43954</v>
       </c>
     </row>
-    <row r="784" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A784" t="s">
         <v>17</v>
       </c>
@@ -57949,7 +57666,7 @@
         <v>43954</v>
       </c>
     </row>
-    <row r="785" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A785" t="s">
         <v>20</v>
       </c>
@@ -58000,7 +57717,7 @@
         <v>43954</v>
       </c>
     </row>
-    <row r="786" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A786" t="s">
         <v>116</v>
       </c>
@@ -58051,7 +57768,7 @@
         <v>43954</v>
       </c>
     </row>
-    <row r="787" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A787" t="s">
         <v>52</v>
       </c>
@@ -58102,7 +57819,7 @@
         <v>43954</v>
       </c>
     </row>
-    <row r="788" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A788" t="s">
         <v>33</v>
       </c>
@@ -58153,7 +57870,7 @@
         <v>43954</v>
       </c>
     </row>
-    <row r="789" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A789" t="s">
         <v>22</v>
       </c>
@@ -58204,7 +57921,7 @@
         <v>43954</v>
       </c>
     </row>
-    <row r="790" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A790" t="s">
         <v>35</v>
       </c>
@@ -58255,7 +57972,7 @@
         <v>43954</v>
       </c>
     </row>
-    <row r="791" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A791" t="s">
         <v>23</v>
       </c>
@@ -58306,7 +58023,7 @@
         <v>43954</v>
       </c>
     </row>
-    <row r="792" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A792" t="s">
         <v>25</v>
       </c>
@@ -58357,7 +58074,7 @@
         <v>43954</v>
       </c>
     </row>
-    <row r="793" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A793" t="s">
         <v>56</v>
       </c>
@@ -58408,7 +58125,7 @@
         <v>43954</v>
       </c>
     </row>
-    <row r="794" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A794" t="s">
         <v>26</v>
       </c>
@@ -58459,7 +58176,7 @@
         <v>43954</v>
       </c>
     </row>
-    <row r="795" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A795" t="s">
         <v>96</v>
       </c>
@@ -58510,7 +58227,7 @@
         <v>43954</v>
       </c>
     </row>
-    <row r="796" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A796" t="s">
         <v>27</v>
       </c>
@@ -58561,7 +58278,7 @@
         <v>43954</v>
       </c>
     </row>
-    <row r="797" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A797" t="s">
         <v>97</v>
       </c>
@@ -58612,7 +58329,7 @@
         <v>43954</v>
       </c>
     </row>
-    <row r="798" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A798" t="s">
         <v>118</v>
       </c>
@@ -58663,7 +58380,7 @@
         <v>43955</v>
       </c>
     </row>
-    <row r="799" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A799" t="s">
         <v>74</v>
       </c>
@@ -58714,7 +58431,7 @@
         <v>43955</v>
       </c>
     </row>
-    <row r="800" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A800" t="s">
         <v>119</v>
       </c>
@@ -58816,7 +58533,7 @@
         <v>43955</v>
       </c>
     </row>
-    <row r="802" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A802" t="s">
         <v>45</v>
       </c>
@@ -58867,7 +58584,7 @@
         <v>43955</v>
       </c>
     </row>
-    <row r="803" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A803" t="s">
         <v>55</v>
       </c>
@@ -58918,7 +58635,7 @@
         <v>43955</v>
       </c>
     </row>
-    <row r="804" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A804" t="s">
         <v>75</v>
       </c>
@@ -58969,7 +58686,7 @@
         <v>43955</v>
       </c>
     </row>
-    <row r="805" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A805" t="s">
         <v>105</v>
       </c>
@@ -59020,7 +58737,7 @@
         <v>43955</v>
       </c>
     </row>
-    <row r="806" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A806" t="s">
         <v>106</v>
       </c>
@@ -59071,7 +58788,7 @@
         <v>43955</v>
       </c>
     </row>
-    <row r="807" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A807" t="s">
         <v>17</v>
       </c>
@@ -59122,7 +58839,7 @@
         <v>43955</v>
       </c>
     </row>
-    <row r="808" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A808" t="s">
         <v>19</v>
       </c>
@@ -59173,7 +58890,7 @@
         <v>43955</v>
       </c>
     </row>
-    <row r="809" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A809" t="s">
         <v>47</v>
       </c>
@@ -59224,7 +58941,7 @@
         <v>43955</v>
       </c>
     </row>
-    <row r="810" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A810" t="s">
         <v>120</v>
       </c>
@@ -59275,7 +58992,7 @@
         <v>43955</v>
       </c>
     </row>
-    <row r="811" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A811" t="s">
         <v>116</v>
       </c>
@@ -59326,7 +59043,7 @@
         <v>43955</v>
       </c>
     </row>
-    <row r="812" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A812" t="s">
         <v>100</v>
       </c>
@@ -59377,7 +59094,7 @@
         <v>43955</v>
       </c>
     </row>
-    <row r="813" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A813" t="s">
         <v>86</v>
       </c>
@@ -59428,7 +59145,7 @@
         <v>43955</v>
       </c>
     </row>
-    <row r="814" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A814" t="s">
         <v>78</v>
       </c>
@@ -59479,7 +59196,7 @@
         <v>43955</v>
       </c>
     </row>
-    <row r="815" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A815" t="s">
         <v>79</v>
       </c>
@@ -59530,7 +59247,7 @@
         <v>43955</v>
       </c>
     </row>
-    <row r="816" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A816" t="s">
         <v>33</v>
       </c>
@@ -59581,7 +59298,7 @@
         <v>43955</v>
       </c>
     </row>
-    <row r="817" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A817" t="s">
         <v>21</v>
       </c>
@@ -59632,7 +59349,7 @@
         <v>43955</v>
       </c>
     </row>
-    <row r="818" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A818" t="s">
         <v>88</v>
       </c>
@@ -59683,7 +59400,7 @@
         <v>43955</v>
       </c>
     </row>
-    <row r="819" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A819" t="s">
         <v>109</v>
       </c>
@@ -59734,7 +59451,7 @@
         <v>43955</v>
       </c>
     </row>
-    <row r="820" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A820" t="s">
         <v>22</v>
       </c>
@@ -59785,7 +59502,7 @@
         <v>43955</v>
       </c>
     </row>
-    <row r="821" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A821" t="s">
         <v>44</v>
       </c>
@@ -59836,7 +59553,7 @@
         <v>43955</v>
       </c>
     </row>
-    <row r="822" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A822" t="s">
         <v>35</v>
       </c>
@@ -59887,7 +59604,7 @@
         <v>43955</v>
       </c>
     </row>
-    <row r="823" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A823" t="s">
         <v>23</v>
       </c>
@@ -59938,7 +59655,7 @@
         <v>43955</v>
       </c>
     </row>
-    <row r="824" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A824" t="s">
         <v>24</v>
       </c>
@@ -59989,7 +59706,7 @@
         <v>43955</v>
       </c>
     </row>
-    <row r="825" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A825" t="s">
         <v>121</v>
       </c>
@@ -60040,7 +59757,7 @@
         <v>43955</v>
       </c>
     </row>
-    <row r="826" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A826" t="s">
         <v>108</v>
       </c>
@@ -60091,7 +59808,7 @@
         <v>43955</v>
       </c>
     </row>
-    <row r="827" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A827" t="s">
         <v>25</v>
       </c>
@@ -60142,7 +59859,7 @@
         <v>43955</v>
       </c>
     </row>
-    <row r="828" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A828" t="s">
         <v>92</v>
       </c>
@@ -60193,7 +59910,7 @@
         <v>43955</v>
       </c>
     </row>
-    <row r="829" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A829" t="s">
         <v>46</v>
       </c>
@@ -60244,7 +59961,7 @@
         <v>43955</v>
       </c>
     </row>
-    <row r="830" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A830" t="s">
         <v>39</v>
       </c>
@@ -60295,7 +60012,7 @@
         <v>43955</v>
       </c>
     </row>
-    <row r="831" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A831" t="s">
         <v>26</v>
       </c>
@@ -60346,7 +60063,7 @@
         <v>43955</v>
       </c>
     </row>
-    <row r="832" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A832" t="s">
         <v>95</v>
       </c>
@@ -60397,7 +60114,7 @@
         <v>43955</v>
       </c>
     </row>
-    <row r="833" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A833" t="s">
         <v>27</v>
       </c>
@@ -60448,7 +60165,7 @@
         <v>43955</v>
       </c>
     </row>
-    <row r="834" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A834" t="s">
         <v>28</v>
       </c>
@@ -60550,7 +60267,7 @@
         <v>43956</v>
       </c>
     </row>
-    <row r="836" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A836" t="s">
         <v>45</v>
       </c>
@@ -60601,7 +60318,7 @@
         <v>43956</v>
       </c>
     </row>
-    <row r="837" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A837" t="s">
         <v>62</v>
       </c>
@@ -60652,7 +60369,7 @@
         <v>43956</v>
       </c>
     </row>
-    <row r="838" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A838" t="s">
         <v>63</v>
       </c>
@@ -60703,7 +60420,7 @@
         <v>43956</v>
       </c>
     </row>
-    <row r="839" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A839" t="s">
         <v>55</v>
       </c>
@@ -60754,7 +60471,7 @@
         <v>43956</v>
       </c>
     </row>
-    <row r="840" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A840" t="s">
         <v>84</v>
       </c>
@@ -60805,7 +60522,7 @@
         <v>43956</v>
       </c>
     </row>
-    <row r="841" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A841" t="s">
         <v>67</v>
       </c>
@@ -60856,7 +60573,7 @@
         <v>43956</v>
       </c>
     </row>
-    <row r="842" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A842" t="s">
         <v>75</v>
       </c>
@@ -60907,7 +60624,7 @@
         <v>43956</v>
       </c>
     </row>
-    <row r="843" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A843" t="s">
         <v>105</v>
       </c>
@@ -60958,7 +60675,7 @@
         <v>43956</v>
       </c>
     </row>
-    <row r="844" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A844" t="s">
         <v>98</v>
       </c>
@@ -61009,7 +60726,7 @@
         <v>43956</v>
       </c>
     </row>
-    <row r="845" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A845" t="s">
         <v>41</v>
       </c>
@@ -61060,7 +60777,7 @@
         <v>43956</v>
       </c>
     </row>
-    <row r="846" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A846" t="s">
         <v>17</v>
       </c>
@@ -61111,7 +60828,7 @@
         <v>43956</v>
       </c>
     </row>
-    <row r="847" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A847" t="s">
         <v>19</v>
       </c>
@@ -61162,7 +60879,7 @@
         <v>43956</v>
       </c>
     </row>
-    <row r="848" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A848" t="s">
         <v>107</v>
       </c>
@@ -61213,7 +60930,7 @@
         <v>43956</v>
       </c>
     </row>
-    <row r="849" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A849" t="s">
         <v>47</v>
       </c>
@@ -61264,7 +60981,7 @@
         <v>43956</v>
       </c>
     </row>
-    <row r="850" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A850" t="s">
         <v>116</v>
       </c>
@@ -61315,7 +61032,7 @@
         <v>43956</v>
       </c>
     </row>
-    <row r="851" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A851" t="s">
         <v>86</v>
       </c>
@@ -61366,7 +61083,7 @@
         <v>43956</v>
       </c>
     </row>
-    <row r="852" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A852" t="s">
         <v>77</v>
       </c>
@@ -61417,7 +61134,7 @@
         <v>43956</v>
       </c>
     </row>
-    <row r="853" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A853" t="s">
         <v>33</v>
       </c>
@@ -61468,7 +61185,7 @@
         <v>43956</v>
       </c>
     </row>
-    <row r="854" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A854" t="s">
         <v>22</v>
       </c>
@@ -61519,7 +61236,7 @@
         <v>43956</v>
       </c>
     </row>
-    <row r="855" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A855" t="s">
         <v>34</v>
       </c>
@@ -61570,7 +61287,7 @@
         <v>43956</v>
       </c>
     </row>
-    <row r="856" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A856" t="s">
         <v>35</v>
       </c>
@@ -61621,7 +61338,7 @@
         <v>43956</v>
       </c>
     </row>
-    <row r="857" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A857" t="s">
         <v>110</v>
       </c>
@@ -61672,7 +61389,7 @@
         <v>43956</v>
       </c>
     </row>
-    <row r="858" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A858" t="s">
         <v>23</v>
       </c>
@@ -61723,7 +61440,7 @@
         <v>43956</v>
       </c>
     </row>
-    <row r="859" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A859" t="s">
         <v>24</v>
       </c>
@@ -61774,7 +61491,7 @@
         <v>43956</v>
       </c>
     </row>
-    <row r="860" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A860" t="s">
         <v>117</v>
       </c>
@@ -61825,7 +61542,7 @@
         <v>43956</v>
       </c>
     </row>
-    <row r="861" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A861" t="s">
         <v>25</v>
       </c>
@@ -61876,7 +61593,7 @@
         <v>43956</v>
       </c>
     </row>
-    <row r="862" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A862" t="s">
         <v>56</v>
       </c>
@@ -61927,7 +61644,7 @@
         <v>43956</v>
       </c>
     </row>
-    <row r="863" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A863" t="s">
         <v>92</v>
       </c>
@@ -61978,7 +61695,7 @@
         <v>43956</v>
       </c>
     </row>
-    <row r="864" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A864" t="s">
         <v>46</v>
       </c>
@@ -62029,7 +61746,7 @@
         <v>43956</v>
       </c>
     </row>
-    <row r="865" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A865" t="s">
         <v>26</v>
       </c>
@@ -62080,7 +61797,7 @@
         <v>43956</v>
       </c>
     </row>
-    <row r="866" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A866" t="s">
         <v>95</v>
       </c>
@@ -62131,7 +61848,7 @@
         <v>43956</v>
       </c>
     </row>
-    <row r="867" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A867" t="s">
         <v>27</v>
       </c>
@@ -62183,7 +61900,468 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P867" xr:uid="{4AC7AECD-0606-4228-9838-27A05C748507}"/>
+  <autoFilter ref="A1:P867" xr:uid="{4AC7AECD-0606-4228-9838-27A05C748507}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="BR"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA8AC71A-0201-4913-91BC-05CE4ED18323}">
+  <dimension ref="A2:L15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11:J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G3" t="s">
+        <v>130</v>
+      </c>
+      <c r="H3" t="s">
+        <v>131</v>
+      </c>
+      <c r="I3" t="s">
+        <v>132</v>
+      </c>
+      <c r="J3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K3" t="s">
+        <v>139</v>
+      </c>
+      <c r="L3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2">
+        <v>13296</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2920</v>
+      </c>
+      <c r="D4" s="2">
+        <v>5063</v>
+      </c>
+      <c r="E4" s="2">
+        <v>23595</v>
+      </c>
+      <c r="G4" t="s">
+        <v>129</v>
+      </c>
+      <c r="H4">
+        <v>4.1521099999999998E-2</v>
+      </c>
+      <c r="I4">
+        <v>0.15579699999999999</v>
+      </c>
+      <c r="J4" s="5">
+        <f t="shared" ref="J4:L8" si="0">G11/$F11</f>
+        <v>0.56350921805467258</v>
+      </c>
+      <c r="K4" s="5">
+        <f t="shared" si="0"/>
+        <v>0.12375503284594194</v>
+      </c>
+      <c r="L4" s="5">
+        <f t="shared" si="0"/>
+        <v>0.21457936003390549</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="2">
+        <v>877</v>
+      </c>
+      <c r="C5" s="2">
+        <v>813</v>
+      </c>
+      <c r="D5" s="2">
+        <v>3524</v>
+      </c>
+      <c r="E5" s="2">
+        <v>5468</v>
+      </c>
+      <c r="G5" t="s">
+        <v>133</v>
+      </c>
+      <c r="H5">
+        <v>0.44691799999999998</v>
+      </c>
+      <c r="I5" t="s">
+        <v>134</v>
+      </c>
+      <c r="J5" s="5">
+        <f t="shared" si="0"/>
+        <v>0.16038771031455742</v>
+      </c>
+      <c r="K5" s="5">
+        <f t="shared" si="0"/>
+        <v>0.14868324798829555</v>
+      </c>
+      <c r="L5" s="5">
+        <f t="shared" si="0"/>
+        <v>0.64447695683979522</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2380</v>
+      </c>
+      <c r="C6" s="2">
+        <v>612</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1739</v>
+      </c>
+      <c r="E6" s="2">
+        <v>5459</v>
+      </c>
+      <c r="G6" t="s">
+        <v>135</v>
+      </c>
+      <c r="H6">
+        <v>0.30115399999999998</v>
+      </c>
+      <c r="I6" t="s">
+        <v>134</v>
+      </c>
+      <c r="J6" s="5">
+        <f t="shared" si="0"/>
+        <v>0.43597728521707274</v>
+      </c>
+      <c r="K6" s="5">
+        <f t="shared" si="0"/>
+        <v>0.11210844477010441</v>
+      </c>
+      <c r="L6" s="5">
+        <f t="shared" si="0"/>
+        <v>0.31855651218171827</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="2">
+        <v>722</v>
+      </c>
+      <c r="C7" s="2">
+        <v>47</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1141</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1989</v>
+      </c>
+      <c r="G7" t="s">
+        <v>136</v>
+      </c>
+      <c r="H7">
+        <v>1.4595999999999999E-3</v>
+      </c>
+      <c r="I7">
+        <v>0.79655799999999999</v>
+      </c>
+      <c r="J7" s="5">
+        <f t="shared" si="0"/>
+        <v>0.36299648064353945</v>
+      </c>
+      <c r="K7" s="5">
+        <f t="shared" si="0"/>
+        <v>2.3629964806435394E-2</v>
+      </c>
+      <c r="L7" s="5">
+        <f t="shared" si="0"/>
+        <v>0.57365510306686773</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2542</v>
+      </c>
+      <c r="C8" s="2">
+        <v>6521</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1252</v>
+      </c>
+      <c r="E8" s="2">
+        <v>10765</v>
+      </c>
+      <c r="G8" t="s">
+        <v>137</v>
+      </c>
+      <c r="H8">
+        <v>2.9066000000000002E-2</v>
+      </c>
+      <c r="I8">
+        <v>0.23652100000000001</v>
+      </c>
+      <c r="J8" s="5">
+        <f t="shared" si="0"/>
+        <v>0.23613562470970739</v>
+      </c>
+      <c r="K8" s="5">
+        <f t="shared" si="0"/>
+        <v>0.6057594054807246</v>
+      </c>
+      <c r="L8" s="5">
+        <f t="shared" si="0"/>
+        <v>0.11630283325592197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9" s="2">
+        <v>19817</v>
+      </c>
+      <c r="C9" s="2">
+        <v>10913</v>
+      </c>
+      <c r="D9" s="2">
+        <v>12719</v>
+      </c>
+      <c r="E9" s="2">
+        <v>47276</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>146</v>
+      </c>
+      <c r="H10" t="s">
+        <v>147</v>
+      </c>
+      <c r="I10" t="s">
+        <v>148</v>
+      </c>
+      <c r="J10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>23595</v>
+      </c>
+      <c r="G11">
+        <v>13296</v>
+      </c>
+      <c r="H11">
+        <v>2920</v>
+      </c>
+      <c r="I11">
+        <v>5063</v>
+      </c>
+      <c r="J11">
+        <f>F11-SUM(G11:I11)</f>
+        <v>2316</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>5468</v>
+      </c>
+      <c r="G12">
+        <v>877</v>
+      </c>
+      <c r="H12">
+        <v>813</v>
+      </c>
+      <c r="I12">
+        <v>3524</v>
+      </c>
+      <c r="J12">
+        <f t="shared" ref="J12:J15" si="1">F12-SUM(G12:I12)</f>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>5459</v>
+      </c>
+      <c r="G13">
+        <v>2380</v>
+      </c>
+      <c r="H13">
+        <v>612</v>
+      </c>
+      <c r="I13">
+        <v>1739</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>728</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>1989</v>
+      </c>
+      <c r="G14">
+        <v>722</v>
+      </c>
+      <c r="H14">
+        <v>47</v>
+      </c>
+      <c r="I14">
+        <v>1141</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>10765</v>
+      </c>
+      <c r="G15">
+        <v>2542</v>
+      </c>
+      <c r="H15">
+        <v>6521</v>
+      </c>
+      <c r="I15">
+        <v>1252</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>450</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{971F6605-2E2D-4C4D-804A-954F69CAC555}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2">
+        <v>2.0110000000000001</v>
+      </c>
+      <c r="C2">
+        <v>6.3008999999999999E-3</v>
+      </c>
+      <c r="D2">
+        <v>4.2542700000000003E-2</v>
+      </c>
+      <c r="E2">
+        <f>D2-B2*C2</f>
+        <v>2.9871590100000005E-2</v>
+      </c>
+      <c r="F2">
+        <f>D2+B2*C2</f>
+        <v>5.5213809900000001E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>2.0110000000000001</v>
+      </c>
+      <c r="C3">
+        <v>8.3774000000000001E-3</v>
+      </c>
+      <c r="D3">
+        <v>3.8100799999999997E-2</v>
+      </c>
+      <c r="E3">
+        <f>D3-B3*C3</f>
+        <v>2.1253848599999996E-2</v>
+      </c>
+      <c r="F3">
+        <f>D3+B3*C3</f>
+        <v>5.4947751399999994E-2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>